--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>561235.2911291817</v>
+        <v>556338.0545412344</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8186089.907737295</v>
+        <v>8186089.907737298</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6198088.838620095</v>
+        <v>6198088.838620094</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.7595704358258</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T11" t="n">
-        <v>198.9089169093898</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H12" t="n">
-        <v>59.00565898536429</v>
+        <v>36.49685192153619</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T12" t="n">
         <v>153.1433946664671</v>
@@ -1511,10 +1511,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>26.64187272956855</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1533,22 +1533,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>34.99001587976078</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>9.043215196229996</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>353.3860080187017</v>
       </c>
       <c r="C14" t="n">
-        <v>100.6869816858532</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1621,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166568202456233</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H15" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>153.1433946664671</v>
+        <v>64.22820433890429</v>
       </c>
       <c r="U15" t="n">
         <v>195.3021387078687</v>
@@ -1751,10 +1751,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>98.7610184374409</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1779,13 +1779,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>87.1373304975241</v>
       </c>
       <c r="T16" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>52.26146991931012</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>215.1751401124622</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1861,7 +1861,7 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H17" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>3.166568202456219</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>100.6869816858545</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1931,16 +1931,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>98.32624329237699</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>59.00565898536429</v>
+        <v>15.86252774276143</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>153.1433946664671</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T19" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9179208068699</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>56.16016122219055</v>
       </c>
       <c r="W19" t="n">
-        <v>193.6238453473686</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>151.2494360814997</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>235.1649013548697</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2174,10 +2174,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.7777180703237</v>
+        <v>15.86252774276143</v>
       </c>
       <c r="H21" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>153.1433946664671</v>
       </c>
       <c r="U21" t="n">
-        <v>47.38128939494152</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>75.24457573147333</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H22" t="n">
         <v>139.5954175304433</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.0607131231338</v>
+        <v>183.5577341464727</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>92.21179817671047</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H23" t="n">
         <v>285.9311321812619</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>75.76737807659021</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,19 +2481,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U25" t="n">
-        <v>272.2386124852791</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>143.4709071081066</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>48.36549314945506</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>3.166568202456219</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>159.5120381566687</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>111.3338820000419</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.64093649023074</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U28" t="n">
         <v>279.9179208068699</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>39.1481587941398</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>322.938985788214</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>52.52501057983025</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T31" t="n">
-        <v>168.5077053983692</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>299.5892735126453</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>32.36393960617542</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>78.06618985197915</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>15.12330215177756</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>41.40309182700578</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>243.2695534618244</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>132.6551205385437</v>
@@ -3356,13 +3356,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>38.04401443014687</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>153.1433946664671</v>
@@ -3413,7 +3413,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
-        <v>157.8079400398083</v>
+        <v>148.787093036112</v>
       </c>
     </row>
     <row r="37">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>86.37808034979749</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.56173973793103</v>
+        <v>188.0676415495071</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.38044718576243</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>128.3670574002053</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>96.95113818827723</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
         <v>115.7281862028015</v>
@@ -3638,7 +3638,7 @@
         <v>153.1433946664671</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3021387078687</v>
+        <v>20.69815404837052</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6200590018132</v>
+        <v>118.5353650791944</v>
       </c>
       <c r="H40" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>233.0607131231338</v>
@@ -3720,16 +3720,16 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V40" t="n">
-        <v>222.0899486668352</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H41" t="n">
-        <v>51.28427572234934</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.319061736559</v>
+        <v>205.2243527220414</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>37.94547920291181</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>45.90191961362681</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
         <v>119.2878878475953</v>
@@ -3833,10 +3833,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>137.7793913792397</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>146.0525917509473</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.3358927929695</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>91.46964733053861</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4061,10 +4061,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>1.406430405534054</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
         <v>107.8702810193205</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>153.1433946664671</v>
@@ -4121,7 +4121,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>26.64187272956877</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4137,25 +4137,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>54.82380819604796</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>48.28620644710094</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S46" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>442.3123922073057</v>
+        <v>1077.932496913843</v>
       </c>
       <c r="C11" t="n">
-        <v>442.3123922073057</v>
+        <v>667.8079062271132</v>
       </c>
       <c r="D11" t="n">
-        <v>442.3123922073057</v>
+        <v>667.8079062271132</v>
       </c>
       <c r="E11" t="n">
-        <v>442.3123922073057</v>
+        <v>459.9699562919356</v>
       </c>
       <c r="F11" t="n">
-        <v>442.3123922073057</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="G11" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H11" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I11" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J11" t="n">
-        <v>142.5703854689898</v>
+        <v>142.5703854689896</v>
       </c>
       <c r="K11" t="n">
         <v>323.2290557446588</v>
       </c>
       <c r="L11" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M11" t="n">
-        <v>841.1329596152968</v>
+        <v>841.1329596152972</v>
       </c>
       <c r="N11" t="n">
         <v>1126.349039004049</v>
       </c>
       <c r="O11" t="n">
-        <v>1390.269714189817</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P11" t="n">
         <v>1601.546999092373</v>
@@ -5065,28 +5065,28 @@
         <v>1740.697478824117</v>
       </c>
       <c r="R11" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S11" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T11" t="n">
-        <v>1586.131427400146</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U11" t="n">
-        <v>1586.131427400146</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="V11" t="n">
-        <v>1236.293872736627</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="W11" t="n">
-        <v>852.5335718717952</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="X11" t="n">
-        <v>852.5335718717952</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="Y11" t="n">
-        <v>852.5335718717952</v>
+        <v>1488.153676578333</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>681.5236699643028</v>
+        <v>658.7875012129613</v>
       </c>
       <c r="C12" t="n">
-        <v>547.5285987132485</v>
+        <v>524.7924299619069</v>
       </c>
       <c r="D12" t="n">
-        <v>430.6314409326409</v>
+        <v>407.8952721812993</v>
       </c>
       <c r="E12" t="n">
-        <v>310.1386249249689</v>
+        <v>287.4024561736273</v>
       </c>
       <c r="F12" t="n">
-        <v>201.1787451074734</v>
+        <v>178.4425763561319</v>
       </c>
       <c r="G12" t="n">
-        <v>95.34266624856059</v>
+        <v>72.60649749721908</v>
       </c>
       <c r="H12" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I12" t="n">
-        <v>54.34778796170226</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J12" t="n">
-        <v>110.3534157295929</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K12" t="n">
-        <v>237.7286580436575</v>
+        <v>651.6352588491868</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7610195839797</v>
+        <v>841.6676203895091</v>
       </c>
       <c r="M12" t="n">
-        <v>657.3593538638702</v>
+        <v>1071.2659546694</v>
       </c>
       <c r="N12" t="n">
-        <v>898.869974051861</v>
+        <v>1312.776574857391</v>
       </c>
       <c r="O12" t="n">
-        <v>1110.805991538928</v>
+        <v>1524.712592344458</v>
       </c>
       <c r="P12" t="n">
-        <v>1273.073438353126</v>
+        <v>1686.980039158656</v>
       </c>
       <c r="Q12" t="n">
-        <v>1687.264539063037</v>
+        <v>1775.234255540019</v>
       </c>
       <c r="R12" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S12" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T12" t="n">
-        <v>1632.359227645522</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U12" t="n">
-        <v>1435.084340061817</v>
+        <v>1348.530002352791</v>
       </c>
       <c r="V12" t="n">
-        <v>1221.37281305485</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="W12" t="n">
-        <v>1008.139644791179</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="X12" t="n">
-        <v>981.2286622360594</v>
+        <v>958.4924934847179</v>
       </c>
       <c r="Y12" t="n">
-        <v>821.8267025998895</v>
+        <v>799.0905338485479</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1086.40989498774</v>
+        <v>371.4654888334606</v>
       </c>
       <c r="C13" t="n">
-        <v>915.3165225494567</v>
+        <v>200.3721163951771</v>
       </c>
       <c r="D13" t="n">
-        <v>755.8218778723667</v>
+        <v>200.3721163951771</v>
       </c>
       <c r="E13" t="n">
-        <v>594.9110627406862</v>
+        <v>200.3721163951771</v>
       </c>
       <c r="F13" t="n">
-        <v>430.2799368512775</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="G13" t="n">
-        <v>263.9970489706581</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H13" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I13" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J13" t="n">
-        <v>51.86344281542365</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K13" t="n">
-        <v>316.585165719259</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L13" t="n">
-        <v>403.48205060153</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M13" t="n">
-        <v>841.3885860026089</v>
+        <v>1149.327310401539</v>
       </c>
       <c r="N13" t="n">
-        <v>935.3011599924529</v>
+        <v>1243.239884391383</v>
       </c>
       <c r="O13" t="n">
-        <v>1321.756545649936</v>
+        <v>1321.756545649937</v>
       </c>
       <c r="P13" t="n">
         <v>1642.118498692661</v>
       </c>
       <c r="Q13" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R13" t="n">
-        <v>1787.049525288418</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="S13" t="n">
-        <v>1787.049525288418</v>
+        <v>1575.748442655587</v>
       </c>
       <c r="T13" t="n">
-        <v>1787.049525288418</v>
+        <v>1340.333580915047</v>
       </c>
       <c r="U13" t="n">
-        <v>1787.049525288418</v>
+        <v>1057.588206362654</v>
       </c>
       <c r="V13" t="n">
-        <v>1787.049525288418</v>
+        <v>1022.244755979057</v>
       </c>
       <c r="W13" t="n">
-        <v>1507.979860797293</v>
+        <v>1022.244755979057</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.84529999302</v>
+        <v>783.9008938387403</v>
       </c>
       <c r="Y13" t="n">
-        <v>1274.109601381785</v>
+        <v>559.165195227505</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1787.049525288418</v>
+        <v>874.310171775039</v>
       </c>
       <c r="C14" t="n">
-        <v>1685.345503383516</v>
+        <v>874.310171775039</v>
       </c>
       <c r="D14" t="n">
-        <v>1280.881573476576</v>
+        <v>874.310171775039</v>
       </c>
       <c r="E14" t="n">
-        <v>866.541357993473</v>
+        <v>459.9699562919356</v>
       </c>
       <c r="F14" t="n">
-        <v>445.5109459471605</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="G14" t="n">
-        <v>38.93954424562314</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H14" t="n">
-        <v>38.93954424562314</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I14" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J14" t="n">
         <v>142.5703854689898</v>
@@ -5284,46 +5284,46 @@
         <v>323.2290557446588</v>
       </c>
       <c r="L14" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M14" t="n">
-        <v>841.1329596152967</v>
+        <v>841.1329596152972</v>
       </c>
       <c r="N14" t="n">
         <v>1126.349039004049</v>
       </c>
       <c r="O14" t="n">
-        <v>1390.269714189817</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P14" t="n">
         <v>1601.546999092373</v>
       </c>
       <c r="Q14" t="n">
-        <v>1740.697478824116</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R14" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S14" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T14" t="n">
-        <v>1787.049525288418</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U14" t="n">
-        <v>1787.049525288418</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="V14" t="n">
-        <v>1787.049525288418</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="W14" t="n">
-        <v>1787.049525288418</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="X14" t="n">
-        <v>1787.049525288418</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="Y14" t="n">
-        <v>1787.049525288418</v>
+        <v>1231.265735430293</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>681.5236699643028</v>
+        <v>621.9219942215105</v>
       </c>
       <c r="C15" t="n">
-        <v>547.5285987132485</v>
+        <v>487.9269229704562</v>
       </c>
       <c r="D15" t="n">
-        <v>430.6314409326409</v>
+        <v>371.0297651898487</v>
       </c>
       <c r="E15" t="n">
-        <v>310.1386249249688</v>
+        <v>250.5369491821766</v>
       </c>
       <c r="F15" t="n">
-        <v>201.1787451074734</v>
+        <v>141.5770693646812</v>
       </c>
       <c r="G15" t="n">
-        <v>95.34266624856058</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H15" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I15" t="n">
-        <v>35.74099050576836</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J15" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K15" t="n">
-        <v>462.7902645623569</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L15" t="n">
-        <v>652.8226261026791</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M15" t="n">
-        <v>882.4209603825697</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N15" t="n">
-        <v>1123.931580570561</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O15" t="n">
-        <v>1335.867598057628</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P15" t="n">
-        <v>1498.135044871826</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q15" t="n">
-        <v>1687.264539063036</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R15" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S15" t="n">
-        <v>1700.495187579392</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.804889936496</v>
+        <v>1722.172551208718</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.53000235279</v>
+        <v>1524.897663625012</v>
       </c>
       <c r="V15" t="n">
-        <v>1134.818475345824</v>
+        <v>1311.186136618046</v>
       </c>
       <c r="W15" t="n">
-        <v>921.585307082153</v>
+        <v>1097.952968354374</v>
       </c>
       <c r="X15" t="n">
-        <v>921.585307082153</v>
+        <v>921.6269864932672</v>
       </c>
       <c r="Y15" t="n">
-        <v>821.8267025998895</v>
+        <v>762.2250268570972</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1086.40989498774</v>
+        <v>691.870948642231</v>
       </c>
       <c r="C16" t="n">
-        <v>915.3165225494567</v>
+        <v>520.7775762039475</v>
       </c>
       <c r="D16" t="n">
-        <v>755.8218778723667</v>
+        <v>361.2829315268576</v>
       </c>
       <c r="E16" t="n">
-        <v>594.9110627406862</v>
+        <v>200.3721163951771</v>
       </c>
       <c r="F16" t="n">
-        <v>430.2799368512775</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="G16" t="n">
-        <v>263.9970489706581</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H16" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I16" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J16" t="n">
-        <v>51.86344281542364</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K16" t="n">
-        <v>110.3049721335449</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L16" t="n">
-        <v>197.2018570158159</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M16" t="n">
-        <v>635.1083924168947</v>
+        <v>875.4027113546831</v>
       </c>
       <c r="N16" t="n">
-        <v>1061.055267854324</v>
+        <v>1243.239884391383</v>
       </c>
       <c r="O16" t="n">
-        <v>1448.030505855773</v>
+        <v>1321.756545649937</v>
       </c>
       <c r="P16" t="n">
-        <v>1768.392458898498</v>
+        <v>1642.118498692661</v>
       </c>
       <c r="Q16" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R16" t="n">
-        <v>1787.049525288418</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="S16" t="n">
-        <v>1787.049525288418</v>
+        <v>1657.261763199114</v>
       </c>
       <c r="T16" t="n">
-        <v>1551.634663547879</v>
+        <v>1657.261763199114</v>
       </c>
       <c r="U16" t="n">
-        <v>1551.634663547879</v>
+        <v>1657.261763199114</v>
       </c>
       <c r="V16" t="n">
-        <v>1551.634663547879</v>
+        <v>1383.376018138636</v>
       </c>
       <c r="W16" t="n">
-        <v>1551.634663547879</v>
+        <v>1104.306353647511</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.84529999302</v>
+        <v>1104.306353647511</v>
       </c>
       <c r="Y16" t="n">
-        <v>1274.109601381785</v>
+        <v>879.5706550362754</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1787.049525288419</v>
+        <v>1685.345503383516</v>
       </c>
       <c r="C17" t="n">
-        <v>1787.049525288419</v>
+        <v>1685.345503383516</v>
       </c>
       <c r="D17" t="n">
-        <v>1569.700898912194</v>
+        <v>1280.881573476576</v>
       </c>
       <c r="E17" t="n">
-        <v>1155.360683429091</v>
+        <v>866.541357993473</v>
       </c>
       <c r="F17" t="n">
-        <v>734.3302713827786</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="G17" t="n">
-        <v>327.7588696812413</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H17" t="n">
         <v>38.93954424562315</v>
       </c>
       <c r="I17" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J17" t="n">
-        <v>142.5703854689898</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K17" t="n">
-        <v>323.2290557446588</v>
+        <v>323.229055744659</v>
       </c>
       <c r="L17" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064787</v>
       </c>
       <c r="M17" t="n">
-        <v>841.132959615297</v>
+        <v>841.1329596152974</v>
       </c>
       <c r="N17" t="n">
         <v>1126.349039004049</v>
@@ -5533,10 +5533,10 @@
         <v>1390.269714189818</v>
       </c>
       <c r="P17" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R17" t="n">
         <v>1787.049525288419</v>
@@ -5545,22 +5545,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="T17" t="n">
-        <v>1787.049525288419</v>
+        <v>1685.345503383516</v>
       </c>
       <c r="U17" t="n">
-        <v>1787.049525288419</v>
+        <v>1685.345503383516</v>
       </c>
       <c r="V17" t="n">
-        <v>1787.049525288419</v>
+        <v>1685.345503383516</v>
       </c>
       <c r="W17" t="n">
-        <v>1787.049525288419</v>
+        <v>1685.345503383516</v>
       </c>
       <c r="X17" t="n">
-        <v>1787.049525288419</v>
+        <v>1685.345503383516</v>
       </c>
       <c r="Y17" t="n">
-        <v>1787.049525288419</v>
+        <v>1685.345503383516</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>445.5543329492901</v>
+        <v>532.1086706583163</v>
       </c>
       <c r="C18" t="n">
-        <v>311.5592616982358</v>
+        <v>398.113599407262</v>
       </c>
       <c r="D18" t="n">
-        <v>194.6621039176283</v>
+        <v>281.2164416266544</v>
       </c>
       <c r="E18" t="n">
-        <v>95.34266624856059</v>
+        <v>160.7236256189824</v>
       </c>
       <c r="F18" t="n">
-        <v>95.34266624856059</v>
+        <v>51.763745801487</v>
       </c>
       <c r="G18" t="n">
-        <v>95.34266624856059</v>
+        <v>51.763745801487</v>
       </c>
       <c r="H18" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I18" t="n">
-        <v>54.34778796170228</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J18" t="n">
-        <v>170.2194754076013</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K18" t="n">
-        <v>297.594717721666</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L18" t="n">
-        <v>487.6270792619882</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M18" t="n">
-        <v>717.2254135418788</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N18" t="n">
-        <v>958.7360337298697</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O18" t="n">
-        <v>1170.672051216937</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P18" t="n">
-        <v>1332.939498031135</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q18" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R18" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S18" t="n">
-        <v>1700.495187579393</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T18" t="n">
-        <v>1545.804889936497</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U18" t="n">
-        <v>1348.530002352791</v>
+        <v>1435.084340061818</v>
       </c>
       <c r="V18" t="n">
-        <v>1134.818475345825</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W18" t="n">
-        <v>921.5853070821539</v>
+        <v>1008.13964479118</v>
       </c>
       <c r="X18" t="n">
-        <v>745.2593252210468</v>
+        <v>831.813662930073</v>
       </c>
       <c r="Y18" t="n">
-        <v>585.8573655848768</v>
+        <v>672.411703293903</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>588.1228195371568</v>
+        <v>760.6323624300308</v>
       </c>
       <c r="C19" t="n">
-        <v>588.1228195371568</v>
+        <v>589.5389899917473</v>
       </c>
       <c r="D19" t="n">
-        <v>428.6281748600668</v>
+        <v>589.5389899917473</v>
       </c>
       <c r="E19" t="n">
         <v>428.6281748600668</v>
@@ -5670,55 +5670,55 @@
         <v>122.991576717685</v>
       </c>
       <c r="I19" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J19" t="n">
         <v>116.8648064467601</v>
       </c>
       <c r="K19" t="n">
-        <v>292.4895886706039</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L19" t="n">
-        <v>379.386473552875</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M19" t="n">
-        <v>817.2930089539539</v>
+        <v>1220.369060868969</v>
       </c>
       <c r="N19" t="n">
-        <v>1243.239884391383</v>
+        <v>1630.411328070339</v>
       </c>
       <c r="O19" t="n">
-        <v>1321.756545649937</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P19" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898499</v>
       </c>
       <c r="Q19" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R19" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S19" t="n">
-        <v>1575.748442655587</v>
+        <v>1617.518699191837</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.333580915047</v>
+        <v>1617.518699191837</v>
       </c>
       <c r="U19" t="n">
-        <v>1057.588206362654</v>
+        <v>1334.773324639443</v>
       </c>
       <c r="V19" t="n">
-        <v>783.7024613021756</v>
+        <v>1278.045889061473</v>
       </c>
       <c r="W19" t="n">
-        <v>588.1228195371568</v>
+        <v>998.9762245703473</v>
       </c>
       <c r="X19" t="n">
-        <v>588.1228195371568</v>
+        <v>760.6323624300308</v>
       </c>
       <c r="Y19" t="n">
-        <v>588.1228195371568</v>
+        <v>760.6323624300308</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1094.192912089267</v>
+        <v>1284.434762461769</v>
       </c>
       <c r="C20" t="n">
-        <v>1094.192912089267</v>
+        <v>874.310171775039</v>
       </c>
       <c r="D20" t="n">
-        <v>856.652607690409</v>
+        <v>874.310171775039</v>
       </c>
       <c r="E20" t="n">
-        <v>442.3123922073057</v>
+        <v>459.9699562919356</v>
       </c>
       <c r="F20" t="n">
-        <v>442.3123922073057</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="G20" t="n">
-        <v>35.74099050576838</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H20" t="n">
-        <v>35.74099050576838</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I20" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J20" t="n">
-        <v>142.5703854689898</v>
+        <v>142.5703854689904</v>
       </c>
       <c r="K20" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446594</v>
       </c>
       <c r="L20" t="n">
-        <v>562.2973247064785</v>
+        <v>562.297324706479</v>
       </c>
       <c r="M20" t="n">
-        <v>841.1329596152974</v>
+        <v>841.1329596152979</v>
       </c>
       <c r="N20" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.34903900405</v>
       </c>
       <c r="O20" t="n">
-        <v>1390.269714189818</v>
+        <v>1390.269714189819</v>
       </c>
       <c r="P20" t="n">
         <v>1601.546999092374</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R20" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S20" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T20" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U20" t="n">
-        <v>1444.030466752787</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="V20" t="n">
-        <v>1094.192912089267</v>
+        <v>1437.2119706249</v>
       </c>
       <c r="W20" t="n">
-        <v>1094.192912089267</v>
+        <v>1437.2119706249</v>
       </c>
       <c r="X20" t="n">
-        <v>1094.192912089267</v>
+        <v>1437.2119706249</v>
       </c>
       <c r="Y20" t="n">
-        <v>1094.192912089267</v>
+        <v>1437.2119706249</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>681.5236699643028</v>
+        <v>532.1086706583163</v>
       </c>
       <c r="C21" t="n">
-        <v>547.5285987132485</v>
+        <v>398.113599407262</v>
       </c>
       <c r="D21" t="n">
-        <v>430.6314409326409</v>
+        <v>281.2164416266544</v>
       </c>
       <c r="E21" t="n">
-        <v>310.1386249249689</v>
+        <v>160.7236256189824</v>
       </c>
       <c r="F21" t="n">
-        <v>201.1787451074734</v>
+        <v>51.763745801487</v>
       </c>
       <c r="G21" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H21" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I21" t="n">
-        <v>35.74099050576838</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J21" t="n">
-        <v>91.74661827365901</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K21" t="n">
-        <v>219.1218605877237</v>
+        <v>563.6655423722059</v>
       </c>
       <c r="L21" t="n">
-        <v>409.1542221280459</v>
+        <v>753.6979039125282</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4489796369296</v>
+        <v>983.2962381924187</v>
       </c>
       <c r="N21" t="n">
-        <v>1092.959599824921</v>
+        <v>1224.80685838041</v>
       </c>
       <c r="O21" t="n">
         <v>1436.742875867477</v>
@@ -5852,7 +5852,7 @@
         <v>1599.010322681675</v>
       </c>
       <c r="Q21" t="n">
-        <v>1687.264539063037</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R21" t="n">
         <v>1787.049525288419</v>
@@ -5864,19 +5864,19 @@
         <v>1632.359227645523</v>
       </c>
       <c r="U21" t="n">
-        <v>1584.499339367804</v>
+        <v>1435.084340061818</v>
       </c>
       <c r="V21" t="n">
-        <v>1370.787812360838</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W21" t="n">
-        <v>1157.554644097167</v>
+        <v>1008.13964479118</v>
       </c>
       <c r="X21" t="n">
-        <v>981.2286622360594</v>
+        <v>831.813662930073</v>
       </c>
       <c r="Y21" t="n">
-        <v>821.8267025998895</v>
+        <v>672.411703293903</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>504.63279681105</v>
+        <v>915.3165225494567</v>
       </c>
       <c r="C22" t="n">
-        <v>504.63279681105</v>
+        <v>915.3165225494567</v>
       </c>
       <c r="D22" t="n">
-        <v>504.63279681105</v>
+        <v>755.8218778723667</v>
       </c>
       <c r="E22" t="n">
-        <v>504.63279681105</v>
+        <v>594.9110627406862</v>
       </c>
       <c r="F22" t="n">
-        <v>340.0016709216412</v>
+        <v>430.2799368512775</v>
       </c>
       <c r="G22" t="n">
         <v>263.9970489706581</v>
@@ -5907,55 +5907,55 @@
         <v>122.991576717685</v>
       </c>
       <c r="I22" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J22" t="n">
-        <v>51.86344281542368</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K22" t="n">
-        <v>316.5851657192591</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L22" t="n">
-        <v>717.4611618365533</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M22" t="n">
-        <v>810.4013477233467</v>
+        <v>1220.369060868969</v>
       </c>
       <c r="N22" t="n">
-        <v>928.165124972643</v>
+        <v>1630.411328070339</v>
       </c>
       <c r="O22" t="n">
-        <v>1321.756545649937</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P22" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898499</v>
       </c>
       <c r="Q22" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R22" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S22" t="n">
-        <v>1575.748442655587</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.333580915047</v>
+        <v>1601.637672615215</v>
       </c>
       <c r="U22" t="n">
-        <v>1057.588206362654</v>
+        <v>1601.637672615215</v>
       </c>
       <c r="V22" t="n">
-        <v>783.7024613021756</v>
+        <v>1327.751927554737</v>
       </c>
       <c r="W22" t="n">
-        <v>504.63279681105</v>
+        <v>1327.751927554737</v>
       </c>
       <c r="X22" t="n">
-        <v>504.63279681105</v>
+        <v>1327.751927554737</v>
       </c>
       <c r="Y22" t="n">
-        <v>504.63279681105</v>
+        <v>1103.016228943501</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>739.5006073835248</v>
+        <v>1150.287633881436</v>
       </c>
       <c r="C23" t="n">
-        <v>329.3760166967949</v>
+        <v>1150.287633881436</v>
       </c>
       <c r="D23" t="n">
-        <v>329.3760166967949</v>
+        <v>1150.287633881436</v>
       </c>
       <c r="E23" t="n">
-        <v>329.3760166967949</v>
+        <v>735.9474183983323</v>
       </c>
       <c r="F23" t="n">
-        <v>329.3760166967949</v>
+        <v>735.9474183983323</v>
       </c>
       <c r="G23" t="n">
         <v>329.3760166967949</v>
       </c>
       <c r="H23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I23" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J23" t="n">
-        <v>147.3860862243982</v>
+        <v>383.355423239411</v>
       </c>
       <c r="K23" t="n">
-        <v>328.0447565000673</v>
+        <v>564.01409351508</v>
       </c>
       <c r="L23" t="n">
-        <v>580.0289430286555</v>
+        <v>803.0823624768997</v>
       </c>
       <c r="M23" t="n">
         <v>1081.917997385719</v>
@@ -6022,19 +6022,19 @@
         <v>2027.83456305884</v>
       </c>
       <c r="U23" t="n">
-        <v>1951.301857930971</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="V23" t="n">
-        <v>1951.301857930971</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="W23" t="n">
-        <v>1951.301857930971</v>
+        <v>1644.074262194009</v>
       </c>
       <c r="X23" t="n">
-        <v>1550.658460099924</v>
+        <v>1243.430864362961</v>
       </c>
       <c r="Y23" t="n">
-        <v>1149.721787048014</v>
+        <v>1243.430864362961</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>686.3393707197114</v>
       </c>
       <c r="C24" t="n">
-        <v>552.344299468657</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D24" t="n">
         <v>435.4471416880494</v>
@@ -6059,34 +6059,34 @@
         <v>205.994445862882</v>
       </c>
       <c r="G24" t="n">
-        <v>100.158367003969</v>
+        <v>100.1583670039693</v>
       </c>
       <c r="H24" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I24" t="n">
-        <v>59.16348871711071</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J24" t="n">
-        <v>115.1691164850014</v>
+        <v>115.1691164850013</v>
       </c>
       <c r="K24" t="n">
-        <v>242.5443587990661</v>
+        <v>242.544358799066</v>
       </c>
       <c r="L24" t="n">
         <v>432.5767203393883</v>
       </c>
       <c r="M24" t="n">
-        <v>818.1111189590661</v>
+        <v>934.4657746964513</v>
       </c>
       <c r="N24" t="n">
-        <v>1059.621739147057</v>
+        <v>1436.354829053514</v>
       </c>
       <c r="O24" t="n">
-        <v>1271.557756634124</v>
+        <v>1648.290846540581</v>
       </c>
       <c r="P24" t="n">
-        <v>1433.825203448322</v>
+        <v>1810.558293354779</v>
       </c>
       <c r="Q24" t="n">
         <v>1928.049576833459</v>
@@ -6095,16 +6095,16 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S24" t="n">
-        <v>1941.280225349815</v>
+        <v>1941.280225349814</v>
       </c>
       <c r="T24" t="n">
-        <v>1786.589927706919</v>
+        <v>1786.589927706918</v>
       </c>
       <c r="U24" t="n">
         <v>1589.315040123213</v>
       </c>
       <c r="V24" t="n">
-        <v>1375.603513116247</v>
+        <v>1375.603513116246</v>
       </c>
       <c r="W24" t="n">
         <v>1162.370344852575</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>376.281189588869</v>
+        <v>678.4330685101427</v>
       </c>
       <c r="C25" t="n">
-        <v>205.1878171505855</v>
+        <v>507.3396960718592</v>
       </c>
       <c r="D25" t="n">
-        <v>205.1878171505855</v>
+        <v>347.8450513947693</v>
       </c>
       <c r="E25" t="n">
-        <v>205.1878171505855</v>
+        <v>347.8450513947693</v>
       </c>
       <c r="F25" t="n">
-        <v>40.55669126117681</v>
+        <v>347.8450513947693</v>
       </c>
       <c r="G25" t="n">
-        <v>40.55669126117681</v>
+        <v>181.5621635141499</v>
       </c>
       <c r="H25" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I25" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J25" t="n">
-        <v>56.67914357083211</v>
+        <v>121.6805072021685</v>
       </c>
       <c r="K25" t="n">
-        <v>115.1206728889534</v>
+        <v>386.4022301060039</v>
       </c>
       <c r="L25" t="n">
-        <v>515.9966690062475</v>
+        <v>787.2782262232981</v>
       </c>
       <c r="M25" t="n">
-        <v>953.9032044073265</v>
+        <v>880.2184121100915</v>
       </c>
       <c r="N25" t="n">
-        <v>1379.850079844756</v>
+        <v>1306.165287547521</v>
       </c>
       <c r="O25" t="n">
-        <v>1773.44150052205</v>
+        <v>1699.756708224815</v>
       </c>
       <c r="P25" t="n">
         <v>2009.17749666892</v>
@@ -6171,28 +6171,28 @@
         <v>2027.83456305884</v>
       </c>
       <c r="R25" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S25" t="n">
-        <v>1816.533480426008</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="T25" t="n">
-        <v>1581.118618685469</v>
+        <v>1792.419701318301</v>
       </c>
       <c r="U25" t="n">
-        <v>1306.130121225591</v>
+        <v>1509.674326765907</v>
       </c>
       <c r="V25" t="n">
-        <v>1306.130121225591</v>
+        <v>1235.788581705429</v>
       </c>
       <c r="W25" t="n">
-        <v>1027.060456734465</v>
+        <v>1235.788581705429</v>
       </c>
       <c r="X25" t="n">
-        <v>788.7165945941488</v>
+        <v>1090.868473515422</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.9808959829135</v>
+        <v>866.132774904187</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2027.83456305884</v>
+        <v>869.2495869542835</v>
       </c>
       <c r="C26" t="n">
-        <v>1978.980529574542</v>
+        <v>869.2495869542835</v>
       </c>
       <c r="D26" t="n">
-        <v>1574.516599667603</v>
+        <v>464.785657047344</v>
       </c>
       <c r="E26" t="n">
-        <v>1160.1763841845</v>
+        <v>464.785657047344</v>
       </c>
       <c r="F26" t="n">
-        <v>739.1459721381871</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="G26" t="n">
-        <v>332.5745704366497</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="H26" t="n">
-        <v>43.75524500103158</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="I26" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J26" t="n">
-        <v>383.355423239411</v>
+        <v>147.3860862243982</v>
       </c>
       <c r="K26" t="n">
         <v>564.01409351508</v>
@@ -6256,22 +6256,22 @@
         <v>2027.83456305884</v>
       </c>
       <c r="T26" t="n">
-        <v>2027.83456305884</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="U26" t="n">
-        <v>2027.83456305884</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="V26" t="n">
-        <v>2027.83456305884</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="W26" t="n">
-        <v>2027.83456305884</v>
+        <v>1431.309530871515</v>
       </c>
       <c r="X26" t="n">
-        <v>2027.83456305884</v>
+        <v>1270.186260006193</v>
       </c>
       <c r="Y26" t="n">
-        <v>2027.83456305884</v>
+        <v>869.2495869542835</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>686.3393707197114</v>
+        <v>686.3393707197113</v>
       </c>
       <c r="C27" t="n">
-        <v>552.344299468657</v>
+        <v>552.3442994686569</v>
       </c>
       <c r="D27" t="n">
-        <v>435.4471416880494</v>
+        <v>435.4471416880493</v>
       </c>
       <c r="E27" t="n">
-        <v>314.9543256803775</v>
+        <v>314.9543256803773</v>
       </c>
       <c r="F27" t="n">
-        <v>205.994445862882</v>
+        <v>205.9944458628819</v>
       </c>
       <c r="G27" t="n">
         <v>100.158367003969</v>
       </c>
       <c r="H27" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I27" t="n">
-        <v>59.16348871711071</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J27" t="n">
-        <v>115.1691164850014</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K27" t="n">
-        <v>242.5443587990661</v>
+        <v>860.7265748166975</v>
       </c>
       <c r="L27" t="n">
-        <v>432.5767203393883</v>
+        <v>1082.45265815993</v>
       </c>
       <c r="M27" t="n">
-        <v>662.1750546192789</v>
+        <v>1312.050992439821</v>
       </c>
       <c r="N27" t="n">
-        <v>1164.064108976342</v>
+        <v>1553.561612627812</v>
       </c>
       <c r="O27" t="n">
-        <v>1665.953163333405</v>
+        <v>1765.497630114879</v>
       </c>
       <c r="P27" t="n">
         <v>1927.765076929077</v>
@@ -6332,13 +6332,13 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S27" t="n">
-        <v>1941.280225349815</v>
+        <v>1941.280225349814</v>
       </c>
       <c r="T27" t="n">
-        <v>1786.589927706919</v>
+        <v>1786.589927706918</v>
       </c>
       <c r="U27" t="n">
-        <v>1589.315040123213</v>
+        <v>1589.315040123212</v>
       </c>
       <c r="V27" t="n">
         <v>1375.603513116246</v>
@@ -6347,10 +6347,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X27" t="n">
-        <v>986.044362991468</v>
+        <v>986.0443629914679</v>
       </c>
       <c r="Y27" t="n">
-        <v>826.642403355298</v>
+        <v>826.6424033552979</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1003.975009531232</v>
+        <v>324.1085303661692</v>
       </c>
       <c r="C28" t="n">
-        <v>832.8816370929485</v>
+        <v>153.0151579278858</v>
       </c>
       <c r="D28" t="n">
-        <v>673.3869924158585</v>
+        <v>153.0151579278858</v>
       </c>
       <c r="E28" t="n">
-        <v>512.476177284178</v>
+        <v>153.0151579278858</v>
       </c>
       <c r="F28" t="n">
-        <v>347.8450513947693</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="G28" t="n">
-        <v>181.5621635141499</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H28" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I28" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J28" t="n">
-        <v>56.67914357083211</v>
+        <v>121.6805072021685</v>
       </c>
       <c r="K28" t="n">
-        <v>115.1206728889534</v>
+        <v>180.1220365202897</v>
       </c>
       <c r="L28" t="n">
-        <v>515.9966690062475</v>
+        <v>580.9980326375839</v>
       </c>
       <c r="M28" t="n">
-        <v>953.9032044073265</v>
+        <v>1018.904568038663</v>
       </c>
       <c r="N28" t="n">
-        <v>1379.850079844756</v>
+        <v>1444.851443476092</v>
       </c>
       <c r="O28" t="n">
-        <v>1773.44150052205</v>
+        <v>1838.442864153386</v>
       </c>
       <c r="P28" t="n">
         <v>2009.17749666892</v>
@@ -6408,28 +6408,28 @@
         <v>2027.83456305884</v>
       </c>
       <c r="R28" t="n">
-        <v>1991.833617109112</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S28" t="n">
-        <v>1991.833617109112</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T28" t="n">
-        <v>1991.833617109112</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="U28" t="n">
-        <v>1709.088242556719</v>
+        <v>1340.143500669325</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.088242556719</v>
+        <v>1066.257755608847</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.018578065593</v>
+        <v>787.1880911177211</v>
       </c>
       <c r="X28" t="n">
-        <v>1191.674715925276</v>
+        <v>548.8442289774046</v>
       </c>
       <c r="Y28" t="n">
-        <v>1191.674715925276</v>
+        <v>324.1085303661692</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1617.613383394351</v>
+        <v>865.0214974310099</v>
       </c>
       <c r="C29" t="n">
-        <v>1207.488792707621</v>
+        <v>454.8969067442801</v>
       </c>
       <c r="D29" t="n">
-        <v>1167.945197966065</v>
+        <v>454.8969067442801</v>
       </c>
       <c r="E29" t="n">
-        <v>753.6049824829621</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="F29" t="n">
-        <v>332.5745704366497</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="G29" t="n">
-        <v>332.5745704366497</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="H29" t="n">
-        <v>43.75524500103157</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I29" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="J29" t="n">
-        <v>147.3860862243982</v>
+        <v>256.3597561632702</v>
       </c>
       <c r="K29" t="n">
-        <v>564.01409351508</v>
+        <v>437.0184264389392</v>
       </c>
       <c r="L29" t="n">
-        <v>803.0823624768997</v>
+        <v>676.0866954007588</v>
       </c>
       <c r="M29" t="n">
-        <v>1081.917997385719</v>
+        <v>954.9223303095777</v>
       </c>
       <c r="N29" t="n">
-        <v>1367.134076774471</v>
+        <v>1240.13840969833</v>
       </c>
       <c r="O29" t="n">
-        <v>1631.054751960239</v>
+        <v>1504.059084884098</v>
       </c>
       <c r="P29" t="n">
-        <v>1842.332036862795</v>
+        <v>1715.336369786654</v>
       </c>
       <c r="Q29" t="n">
-        <v>1981.482516594539</v>
+        <v>1854.486849518398</v>
       </c>
       <c r="R29" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S29" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="T29" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="U29" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="V29" t="n">
-        <v>2027.83456305884</v>
+        <v>1591.865891007728</v>
       </c>
       <c r="W29" t="n">
-        <v>2027.83456305884</v>
+        <v>1265.664895262057</v>
       </c>
       <c r="X29" t="n">
-        <v>2027.83456305884</v>
+        <v>865.0214974310099</v>
       </c>
       <c r="Y29" t="n">
-        <v>2027.83456305884</v>
+        <v>865.0214974310099</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C30" t="n">
-        <v>552.344299468657</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D30" t="n">
-        <v>435.4471416880494</v>
+        <v>435.4471416880497</v>
       </c>
       <c r="E30" t="n">
-        <v>314.9543256803775</v>
+        <v>314.9543256803777</v>
       </c>
       <c r="F30" t="n">
-        <v>205.994445862882</v>
+        <v>205.9944458628822</v>
       </c>
       <c r="G30" t="n">
         <v>100.1583670039693</v>
       </c>
       <c r="H30" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I30" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="J30" t="n">
-        <v>96.56231902906744</v>
+        <v>340.2307230037007</v>
       </c>
       <c r="K30" t="n">
-        <v>223.9375613431321</v>
+        <v>467.6059653177654</v>
       </c>
       <c r="L30" t="n">
-        <v>413.9699228834544</v>
+        <v>657.6383268580876</v>
       </c>
       <c r="M30" t="n">
-        <v>915.8589772405173</v>
+        <v>887.2366611379781</v>
       </c>
       <c r="N30" t="n">
-        <v>1417.74803159758</v>
+        <v>1128.747281325969</v>
       </c>
       <c r="O30" t="n">
-        <v>1677.527913637898</v>
+        <v>1340.683298813036</v>
       </c>
       <c r="P30" t="n">
-        <v>1839.795360452096</v>
+        <v>1502.950745627234</v>
       </c>
       <c r="Q30" t="n">
         <v>1928.049576833459</v>
@@ -6569,25 +6569,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S30" t="n">
-        <v>1941.280225349814</v>
+        <v>1941.280225349815</v>
       </c>
       <c r="T30" t="n">
-        <v>1786.589927706918</v>
+        <v>1786.589927706919</v>
       </c>
       <c r="U30" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V30" t="n">
-        <v>1375.603513116246</v>
+        <v>1375.603513116247</v>
       </c>
       <c r="W30" t="n">
         <v>1162.370344852575</v>
       </c>
       <c r="X30" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y30" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>371.1447083765503</v>
+        <v>419.1541985245188</v>
       </c>
       <c r="C31" t="n">
-        <v>200.0513359382668</v>
+        <v>366.0986322822661</v>
       </c>
       <c r="D31" t="n">
-        <v>40.5566912611768</v>
+        <v>366.0986322822661</v>
       </c>
       <c r="E31" t="n">
-        <v>40.5566912611768</v>
+        <v>205.1878171505855</v>
       </c>
       <c r="F31" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="G31" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="H31" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I31" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="J31" t="n">
-        <v>56.6791435708321</v>
+        <v>121.6805072021685</v>
       </c>
       <c r="K31" t="n">
-        <v>115.1206728889534</v>
+        <v>180.1220365202897</v>
       </c>
       <c r="L31" t="n">
-        <v>515.9966690062475</v>
+        <v>580.9980326375839</v>
       </c>
       <c r="M31" t="n">
-        <v>953.9032044073265</v>
+        <v>1018.904568038663</v>
       </c>
       <c r="N31" t="n">
-        <v>1379.850079844756</v>
+        <v>1444.851443476092</v>
       </c>
       <c r="O31" t="n">
-        <v>1773.44150052205</v>
+        <v>1838.442864153386</v>
       </c>
       <c r="P31" t="n">
-        <v>2009.17749666892</v>
+        <v>1897.907333722993</v>
       </c>
       <c r="Q31" t="n">
         <v>2027.83456305884</v>
@@ -6648,25 +6648,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S31" t="n">
-        <v>2027.83456305884</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T31" t="n">
-        <v>1857.624759626144</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="U31" t="n">
-        <v>1574.87938507375</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="V31" t="n">
-        <v>1300.993640013272</v>
+        <v>1349.003130161241</v>
       </c>
       <c r="W31" t="n">
-        <v>1021.923975522147</v>
+        <v>1069.933465670115</v>
       </c>
       <c r="X31" t="n">
-        <v>783.58011338183</v>
+        <v>831.5896035297985</v>
       </c>
       <c r="Y31" t="n">
-        <v>558.8444147705947</v>
+        <v>606.8539049185632</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>450.6812819479067</v>
+        <v>1591.865891007728</v>
       </c>
       <c r="C32" t="n">
-        <v>40.5566912611768</v>
+        <v>1181.741300320998</v>
       </c>
       <c r="D32" t="n">
-        <v>40.5566912611768</v>
+        <v>1181.741300320998</v>
       </c>
       <c r="E32" t="n">
-        <v>40.5566912611768</v>
+        <v>767.4010848378948</v>
       </c>
       <c r="F32" t="n">
-        <v>40.5566912611768</v>
+        <v>346.3706727915824</v>
       </c>
       <c r="G32" t="n">
-        <v>40.5566912611768</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="H32" t="n">
-        <v>40.5566912611768</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="I32" t="n">
         <v>40.5566912611768</v>
       </c>
       <c r="J32" t="n">
-        <v>383.355423239411</v>
+        <v>166.6824482711003</v>
       </c>
       <c r="K32" t="n">
-        <v>564.01409351508</v>
+        <v>347.3411185467693</v>
       </c>
       <c r="L32" t="n">
-        <v>803.0823624768997</v>
+        <v>586.4093875085889</v>
       </c>
       <c r="M32" t="n">
-        <v>1081.917997385719</v>
+        <v>865.2450224174078</v>
       </c>
       <c r="N32" t="n">
         <v>1367.134076774471</v>
@@ -6727,25 +6727,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S32" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="T32" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="U32" t="n">
-        <v>1995.143714971794</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="V32" t="n">
-        <v>1645.306160308275</v>
+        <v>1591.865891007728</v>
       </c>
       <c r="W32" t="n">
-        <v>1261.545859443444</v>
+        <v>1591.865891007728</v>
       </c>
       <c r="X32" t="n">
-        <v>860.9024616123961</v>
+        <v>1591.865891007728</v>
       </c>
       <c r="Y32" t="n">
-        <v>860.9024616123961</v>
+        <v>1591.865891007728</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>686.3393707197115</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C33" t="n">
-        <v>552.3442994686573</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D33" t="n">
-        <v>435.4471416880497</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E33" t="n">
-        <v>314.9543256803777</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F33" t="n">
-        <v>205.9944458628822</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G33" t="n">
         <v>100.158367003969</v>
@@ -6779,25 +6779,25 @@
         <v>40.5566912611768</v>
       </c>
       <c r="J33" t="n">
-        <v>96.56231902906744</v>
+        <v>340.2307230037007</v>
       </c>
       <c r="K33" t="n">
-        <v>223.9375613431321</v>
+        <v>467.6059653177654</v>
       </c>
       <c r="L33" t="n">
-        <v>413.9699228834544</v>
+        <v>657.6383268580876</v>
       </c>
       <c r="M33" t="n">
-        <v>643.5682571633449</v>
+        <v>887.2366611379781</v>
       </c>
       <c r="N33" t="n">
-        <v>885.0788773513359</v>
+        <v>1128.747281325969</v>
       </c>
       <c r="O33" t="n">
-        <v>1097.014894838403</v>
+        <v>1340.683298813036</v>
       </c>
       <c r="P33" t="n">
-        <v>1433.825203448322</v>
+        <v>1502.950745627234</v>
       </c>
       <c r="Q33" t="n">
         <v>1928.049576833459</v>
@@ -6815,16 +6815,16 @@
         <v>1589.315040123213</v>
       </c>
       <c r="V33" t="n">
-        <v>1375.603513116247</v>
+        <v>1375.603513116246</v>
       </c>
       <c r="W33" t="n">
         <v>1162.370344852575</v>
       </c>
       <c r="X33" t="n">
-        <v>986.0443629914681</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y33" t="n">
-        <v>826.6424033552981</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>782.3296298253903</v>
+        <v>765.6836547220594</v>
       </c>
       <c r="C34" t="n">
-        <v>611.2362573871068</v>
+        <v>594.5902822837759</v>
       </c>
       <c r="D34" t="n">
-        <v>532.3815201628854</v>
+        <v>435.095637606686</v>
       </c>
       <c r="E34" t="n">
-        <v>371.4707050312049</v>
+        <v>435.095637606686</v>
       </c>
       <c r="F34" t="n">
-        <v>206.8395791417962</v>
+        <v>435.095637606686</v>
       </c>
       <c r="G34" t="n">
-        <v>40.5566912611768</v>
+        <v>268.8127497260665</v>
       </c>
       <c r="H34" t="n">
-        <v>40.5566912611768</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="I34" t="n">
         <v>40.5566912611768</v>
@@ -6864,16 +6864,16 @@
         <v>115.1206728889534</v>
       </c>
       <c r="L34" t="n">
-        <v>515.9966690062475</v>
+        <v>431.370712110393</v>
       </c>
       <c r="M34" t="n">
-        <v>953.9032044073265</v>
+        <v>869.2772475114718</v>
       </c>
       <c r="N34" t="n">
-        <v>1379.850079844756</v>
+        <v>1295.224122948901</v>
       </c>
       <c r="O34" t="n">
-        <v>1773.44150052205</v>
+        <v>1688.815543626195</v>
       </c>
       <c r="P34" t="n">
         <v>2009.17749666892</v>
@@ -6885,25 +6885,25 @@
         <v>1986.06430652259</v>
       </c>
       <c r="S34" t="n">
-        <v>1986.06430652259</v>
+        <v>1816.533480426008</v>
       </c>
       <c r="T34" t="n">
-        <v>1986.06430652259</v>
+        <v>1581.118618685469</v>
       </c>
       <c r="U34" t="n">
-        <v>1986.06430652259</v>
+        <v>1298.373244133075</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.178561462112</v>
+        <v>1283.097181353502</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.108896970987</v>
+        <v>1004.027516862376</v>
       </c>
       <c r="X34" t="n">
-        <v>1194.76503483067</v>
+        <v>765.6836547220594</v>
       </c>
       <c r="Y34" t="n">
-        <v>970.0293362194346</v>
+        <v>765.6836547220594</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1275.575547942124</v>
+        <v>1284.434762461769</v>
       </c>
       <c r="C35" t="n">
-        <v>1275.575547942124</v>
+        <v>874.310171775039</v>
       </c>
       <c r="D35" t="n">
-        <v>871.1116180351842</v>
+        <v>874.310171775039</v>
       </c>
       <c r="E35" t="n">
-        <v>456.7714025520809</v>
+        <v>459.9699562919356</v>
       </c>
       <c r="F35" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="G35" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H35" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I35" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J35" t="n">
-        <v>142.5703854689898</v>
+        <v>142.5703854689899</v>
       </c>
       <c r="K35" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446589</v>
       </c>
       <c r="L35" t="n">
-        <v>562.2973247064784</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M35" t="n">
-        <v>841.1329596152973</v>
+        <v>841.1329596152974</v>
       </c>
       <c r="N35" t="n">
         <v>1126.349039004049</v>
@@ -6955,34 +6955,34 @@
         <v>1390.269714189818</v>
       </c>
       <c r="P35" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q35" t="n">
         <v>1740.697478824117</v>
       </c>
       <c r="R35" t="n">
-        <v>1787.04952528842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S35" t="n">
-        <v>1745.228220412656</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T35" t="n">
-        <v>1532.463489090163</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U35" t="n">
-        <v>1275.575547942124</v>
+        <v>1530.16158414038</v>
       </c>
       <c r="V35" t="n">
-        <v>1275.575547942124</v>
+        <v>1284.434762461769</v>
       </c>
       <c r="W35" t="n">
-        <v>1275.575547942124</v>
+        <v>1284.434762461769</v>
       </c>
       <c r="X35" t="n">
-        <v>1275.575547942124</v>
+        <v>1284.434762461769</v>
       </c>
       <c r="Y35" t="n">
-        <v>1275.575547942124</v>
+        <v>1284.434762461769</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>445.5543329492911</v>
+        <v>681.5236699643028</v>
       </c>
       <c r="C36" t="n">
-        <v>311.5592616982368</v>
+        <v>547.5285987132485</v>
       </c>
       <c r="D36" t="n">
-        <v>194.6621039176292</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="E36" t="n">
-        <v>74.16928790995715</v>
+        <v>310.1386249249689</v>
       </c>
       <c r="F36" t="n">
-        <v>35.74099050576839</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G36" t="n">
-        <v>35.74099050576839</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H36" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I36" t="n">
-        <v>35.74099050576839</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J36" t="n">
-        <v>91.74661827365904</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K36" t="n">
-        <v>534.0413757825429</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L36" t="n">
-        <v>724.0737373228651</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M36" t="n">
-        <v>953.6720716027556</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N36" t="n">
-        <v>1195.182691790747</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O36" t="n">
-        <v>1407.118709277814</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P36" t="n">
-        <v>1569.386156092012</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q36" t="n">
-        <v>1775.23425554002</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R36" t="n">
-        <v>1787.04952528842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S36" t="n">
-        <v>1700.495187579394</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T36" t="n">
-        <v>1545.804889936498</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U36" t="n">
-        <v>1348.530002352792</v>
+        <v>1435.084340061817</v>
       </c>
       <c r="V36" t="n">
-        <v>1134.818475345826</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W36" t="n">
-        <v>921.5853070821548</v>
+        <v>1008.13964479118</v>
       </c>
       <c r="X36" t="n">
-        <v>745.2593252210477</v>
+        <v>831.8136629300725</v>
       </c>
       <c r="Y36" t="n">
-        <v>585.8573655848777</v>
+        <v>681.5236699643028</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1086.40989498774</v>
+        <v>287.6227026070937</v>
       </c>
       <c r="C37" t="n">
-        <v>915.3165225494567</v>
+        <v>287.6227026070937</v>
       </c>
       <c r="D37" t="n">
-        <v>755.8218778723667</v>
+        <v>287.6227026070937</v>
       </c>
       <c r="E37" t="n">
-        <v>594.9110627406862</v>
+        <v>287.6227026070937</v>
       </c>
       <c r="F37" t="n">
-        <v>430.2799368512775</v>
+        <v>122.991576717685</v>
       </c>
       <c r="G37" t="n">
-        <v>263.9970489706581</v>
+        <v>122.991576717685</v>
       </c>
       <c r="H37" t="n">
         <v>122.991576717685</v>
       </c>
       <c r="I37" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J37" t="n">
         <v>116.8648064467601</v>
       </c>
       <c r="K37" t="n">
-        <v>381.5865293505955</v>
+        <v>175.3063357648813</v>
       </c>
       <c r="L37" t="n">
-        <v>640.2839570259939</v>
+        <v>576.1823318821755</v>
       </c>
       <c r="M37" t="n">
-        <v>1078.190492427073</v>
+        <v>1014.088867283254</v>
       </c>
       <c r="N37" t="n">
-        <v>1504.137367864502</v>
+        <v>1108.001441273098</v>
       </c>
       <c r="O37" t="n">
-        <v>1582.654029123056</v>
+        <v>1501.592861950392</v>
       </c>
       <c r="P37" t="n">
-        <v>1642.118498692662</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q37" t="n">
-        <v>1787.04952528842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R37" t="n">
-        <v>1745.27926875217</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S37" t="n">
-        <v>1575.748442655587</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T37" t="n">
-        <v>1340.333580915048</v>
+        <v>1551.63466354788</v>
       </c>
       <c r="U37" t="n">
-        <v>1340.333580915048</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="V37" t="n">
-        <v>1340.333580915048</v>
+        <v>995.0035439350079</v>
       </c>
       <c r="W37" t="n">
-        <v>1340.333580915048</v>
+        <v>715.9338794438822</v>
       </c>
       <c r="X37" t="n">
-        <v>1340.333580915048</v>
+        <v>477.5900173035656</v>
       </c>
       <c r="Y37" t="n">
-        <v>1274.109601381785</v>
+        <v>287.6227026070937</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1267.868280322396</v>
+        <v>863.4043504154563</v>
       </c>
       <c r="C38" t="n">
-        <v>857.743689635666</v>
+        <v>453.2797597287264</v>
       </c>
       <c r="D38" t="n">
         <v>453.2797597287264</v>
       </c>
       <c r="E38" t="n">
-        <v>38.93954424562316</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="F38" t="n">
-        <v>38.93954424562316</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="G38" t="n">
-        <v>38.93954424562316</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H38" t="n">
-        <v>38.93954424562316</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I38" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J38" t="n">
         <v>142.5703854689898</v>
@@ -7180,46 +7180,46 @@
         <v>323.2290557446588</v>
       </c>
       <c r="L38" t="n">
-        <v>562.2973247064795</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M38" t="n">
-        <v>841.1329596152983</v>
+        <v>841.1329596152973</v>
       </c>
       <c r="N38" t="n">
-        <v>1126.34903900405</v>
+        <v>1126.349039004049</v>
       </c>
       <c r="O38" t="n">
-        <v>1390.269714189819</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P38" t="n">
-        <v>1601.546999092375</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q38" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R38" t="n">
-        <v>1787.04952528842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S38" t="n">
-        <v>1700.918407900827</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T38" t="n">
-        <v>1700.918407900827</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U38" t="n">
-        <v>1700.918407900827</v>
+        <v>1657.385830944777</v>
       </c>
       <c r="V38" t="n">
-        <v>1351.080853237308</v>
+        <v>1657.385830944777</v>
       </c>
       <c r="W38" t="n">
-        <v>1351.080853237308</v>
+        <v>1273.625530079946</v>
       </c>
       <c r="X38" t="n">
-        <v>1351.080853237308</v>
+        <v>1273.625530079946</v>
       </c>
       <c r="Y38" t="n">
-        <v>1351.080853237308</v>
+        <v>1273.625530079946</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>487.9269229704562</v>
+        <v>621.9219942215105</v>
       </c>
       <c r="C39" t="n">
         <v>487.9269229704562</v>
@@ -7244,61 +7244,61 @@
         <v>141.5770693646812</v>
       </c>
       <c r="G39" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H39" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I39" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J39" t="n">
-        <v>91.74661827365904</v>
+        <v>335.4150222482922</v>
       </c>
       <c r="K39" t="n">
-        <v>219.1218605877237</v>
+        <v>462.7902645623569</v>
       </c>
       <c r="L39" t="n">
-        <v>409.154222128046</v>
+        <v>652.8226261026791</v>
       </c>
       <c r="M39" t="n">
-        <v>638.7525564079366</v>
+        <v>882.4209603825697</v>
       </c>
       <c r="N39" t="n">
-        <v>880.2631765959276</v>
+        <v>1123.931580570561</v>
       </c>
       <c r="O39" t="n">
-        <v>1092.199194082995</v>
+        <v>1335.867598057628</v>
       </c>
       <c r="P39" t="n">
-        <v>1332.939498031136</v>
+        <v>1498.135044871826</v>
       </c>
       <c r="Q39" t="n">
-        <v>1775.23425554002</v>
+        <v>1775.234255540019</v>
       </c>
       <c r="R39" t="n">
-        <v>1787.04952528842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S39" t="n">
-        <v>1700.495187579394</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T39" t="n">
-        <v>1545.804889936498</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U39" t="n">
-        <v>1348.530002352792</v>
+        <v>1524.897663625012</v>
       </c>
       <c r="V39" t="n">
-        <v>1134.818475345826</v>
+        <v>1311.186136618046</v>
       </c>
       <c r="W39" t="n">
-        <v>921.5853070821548</v>
+        <v>1097.952968354374</v>
       </c>
       <c r="X39" t="n">
-        <v>745.2593252210477</v>
+        <v>921.6269864932672</v>
       </c>
       <c r="Y39" t="n">
-        <v>585.8573655848777</v>
+        <v>762.2250268570972</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>594.9110627406862</v>
+        <v>491.1981808326469</v>
       </c>
       <c r="C40" t="n">
-        <v>594.9110627406862</v>
+        <v>320.1048083943634</v>
       </c>
       <c r="D40" t="n">
-        <v>594.9110627406862</v>
+        <v>320.1048083943634</v>
       </c>
       <c r="E40" t="n">
-        <v>594.9110627406862</v>
+        <v>320.1048083943634</v>
       </c>
       <c r="F40" t="n">
-        <v>430.2799368512775</v>
+        <v>155.4736825049547</v>
       </c>
       <c r="G40" t="n">
-        <v>263.9970489706581</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H40" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I40" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J40" t="n">
-        <v>116.8648064467601</v>
+        <v>51.86344281542368</v>
       </c>
       <c r="K40" t="n">
-        <v>381.5865293505955</v>
+        <v>121.7439796702631</v>
       </c>
       <c r="L40" t="n">
-        <v>657.2434990548388</v>
+        <v>522.6199757875572</v>
       </c>
       <c r="M40" t="n">
-        <v>1095.150034455918</v>
+        <v>960.5265111886362</v>
       </c>
       <c r="N40" t="n">
-        <v>1189.062608445762</v>
+        <v>1054.43908517848</v>
       </c>
       <c r="O40" t="n">
-        <v>1582.654029123056</v>
+        <v>1448.030505855774</v>
       </c>
       <c r="P40" t="n">
-        <v>1642.118498692662</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q40" t="n">
-        <v>1787.04952528842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R40" t="n">
-        <v>1745.27926875217</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S40" t="n">
-        <v>1575.748442655587</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T40" t="n">
-        <v>1340.333580915048</v>
+        <v>1551.63466354788</v>
       </c>
       <c r="U40" t="n">
-        <v>1057.588206362655</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="V40" t="n">
-        <v>833.2549248810028</v>
+        <v>995.0035439350079</v>
       </c>
       <c r="W40" t="n">
-        <v>833.2549248810028</v>
+        <v>715.9338794438822</v>
       </c>
       <c r="X40" t="n">
-        <v>594.9110627406862</v>
+        <v>715.9338794438822</v>
       </c>
       <c r="Y40" t="n">
-        <v>594.9110627406862</v>
+        <v>491.1981808326469</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>497.6678799019421</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="C41" t="n">
-        <v>87.54328921521216</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="D41" t="n">
-        <v>87.54328921521216</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="E41" t="n">
-        <v>87.54328921521216</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="F41" t="n">
-        <v>87.54328921521216</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="G41" t="n">
-        <v>87.54328921521216</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="H41" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="I41" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J41" t="n">
-        <v>142.5703854689898</v>
+        <v>142.5703854689895</v>
       </c>
       <c r="K41" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446585</v>
       </c>
       <c r="L41" t="n">
-        <v>562.2973247064784</v>
+        <v>562.2973247064781</v>
       </c>
       <c r="M41" t="n">
-        <v>841.1329596152973</v>
+        <v>841.132959615297</v>
       </c>
       <c r="N41" t="n">
         <v>1126.349039004049</v>
@@ -7438,25 +7438,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S41" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T41" t="n">
-        <v>1488.153676578332</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U41" t="n">
-        <v>1231.265735430293</v>
+        <v>1579.752199306559</v>
       </c>
       <c r="V41" t="n">
-        <v>881.4281807667735</v>
+        <v>1229.914644643039</v>
       </c>
       <c r="W41" t="n">
-        <v>497.6678799019421</v>
+        <v>846.1543437782079</v>
       </c>
       <c r="X41" t="n">
-        <v>497.6678799019421</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="Y41" t="n">
-        <v>497.6678799019421</v>
+        <v>445.5109459471605</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>445.5543329492899</v>
+        <v>547.5285987132485</v>
       </c>
       <c r="C42" t="n">
-        <v>311.5592616982356</v>
+        <v>547.5285987132485</v>
       </c>
       <c r="D42" t="n">
-        <v>265.1936863309358</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="E42" t="n">
-        <v>144.7008703232638</v>
+        <v>310.1386249249689</v>
       </c>
       <c r="F42" t="n">
-        <v>35.74099050576837</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G42" t="n">
-        <v>35.74099050576837</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H42" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="I42" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J42" t="n">
-        <v>91.74661827365901</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K42" t="n">
-        <v>219.1218605877237</v>
+        <v>651.6352588491866</v>
       </c>
       <c r="L42" t="n">
-        <v>409.1542221280459</v>
+        <v>841.6676203895089</v>
       </c>
       <c r="M42" t="n">
-        <v>638.7525564079365</v>
+        <v>1071.265954669399</v>
       </c>
       <c r="N42" t="n">
-        <v>880.2631765959275</v>
+        <v>1312.77657485739</v>
       </c>
       <c r="O42" t="n">
-        <v>1092.199194082995</v>
+        <v>1524.712592344458</v>
       </c>
       <c r="P42" t="n">
-        <v>1254.466640897193</v>
+        <v>1686.980039158656</v>
       </c>
       <c r="Q42" t="n">
-        <v>1687.264539063037</v>
+        <v>1775.234255540018</v>
       </c>
       <c r="R42" t="n">
         <v>1787.049525288419</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>200.3721163951771</v>
+        <v>582.568138929728</v>
       </c>
       <c r="C43" t="n">
-        <v>200.3721163951771</v>
+        <v>582.568138929728</v>
       </c>
       <c r="D43" t="n">
-        <v>200.3721163951771</v>
+        <v>423.073494252638</v>
       </c>
       <c r="E43" t="n">
-        <v>200.3721163951771</v>
+        <v>262.1626791209575</v>
       </c>
       <c r="F43" t="n">
-        <v>35.74099050576837</v>
+        <v>122.991576717685</v>
       </c>
       <c r="G43" t="n">
-        <v>35.74099050576837</v>
+        <v>122.991576717685</v>
       </c>
       <c r="H43" t="n">
-        <v>35.74099050576837</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I43" t="n">
         <v>35.74099050576837</v>
@@ -7572,22 +7572,22 @@
         <v>116.86480644676</v>
       </c>
       <c r="K43" t="n">
-        <v>381.5865293505955</v>
+        <v>175.3063357648813</v>
       </c>
       <c r="L43" t="n">
-        <v>468.4834142328665</v>
+        <v>262.2032206471523</v>
       </c>
       <c r="M43" t="n">
-        <v>906.3899496339454</v>
+        <v>700.1097560482312</v>
       </c>
       <c r="N43" t="n">
-        <v>1054.43908517848</v>
+        <v>1126.056631485661</v>
       </c>
       <c r="O43" t="n">
-        <v>1448.030505855774</v>
+        <v>1519.648052162955</v>
       </c>
       <c r="P43" t="n">
-        <v>1768.392458898498</v>
+        <v>1642.118498692661</v>
       </c>
       <c r="Q43" t="n">
         <v>1787.049525288419</v>
@@ -7596,25 +7596,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S43" t="n">
-        <v>1639.521654832916</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T43" t="n">
-        <v>1404.106793092377</v>
+        <v>1551.634663547879</v>
       </c>
       <c r="U43" t="n">
-        <v>1404.106793092377</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="V43" t="n">
-        <v>1130.221048031899</v>
+        <v>995.0035439350077</v>
       </c>
       <c r="W43" t="n">
-        <v>851.1513835407734</v>
+        <v>995.0035439350077</v>
       </c>
       <c r="X43" t="n">
-        <v>612.8075214004568</v>
+        <v>995.0035439350077</v>
       </c>
       <c r="Y43" t="n">
-        <v>388.0718227892215</v>
+        <v>770.2678453237723</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1685.700138628853</v>
+        <v>1284.434762461769</v>
       </c>
       <c r="C44" t="n">
-        <v>1275.575547942124</v>
+        <v>874.310171775039</v>
       </c>
       <c r="D44" t="n">
-        <v>871.1116180351842</v>
+        <v>874.310171775039</v>
       </c>
       <c r="E44" t="n">
-        <v>456.7714025520808</v>
+        <v>459.9699562919356</v>
       </c>
       <c r="F44" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="G44" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="H44" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="I44" t="n">
         <v>35.74099050576837</v>
@@ -7654,10 +7654,10 @@
         <v>323.2290557446588</v>
       </c>
       <c r="L44" t="n">
-        <v>562.2973247064783</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M44" t="n">
-        <v>841.1329596152971</v>
+        <v>841.1329596152972</v>
       </c>
       <c r="N44" t="n">
         <v>1126.349039004049</v>
@@ -7681,19 +7681,19 @@
         <v>1787.049525288419</v>
       </c>
       <c r="U44" t="n">
-        <v>1787.049525288419</v>
+        <v>1694.655942126258</v>
       </c>
       <c r="V44" t="n">
-        <v>1787.049525288419</v>
+        <v>1694.655942126258</v>
       </c>
       <c r="W44" t="n">
-        <v>1787.049525288419</v>
+        <v>1694.655942126258</v>
       </c>
       <c r="X44" t="n">
-        <v>1787.049525288419</v>
+        <v>1694.655942126258</v>
       </c>
       <c r="Y44" t="n">
-        <v>1787.049525288419</v>
+        <v>1694.655942126258</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>445.5543329492899</v>
+        <v>681.5236699643028</v>
       </c>
       <c r="C45" t="n">
-        <v>311.5592616982356</v>
+        <v>547.5285987132485</v>
       </c>
       <c r="D45" t="n">
-        <v>311.5592616982356</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="E45" t="n">
         <v>310.1386249249689</v>
@@ -7724,28 +7724,28 @@
         <v>35.74099050576837</v>
       </c>
       <c r="I45" t="n">
-        <v>54.34778796170227</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J45" t="n">
-        <v>110.3534157295929</v>
+        <v>335.4150222482922</v>
       </c>
       <c r="K45" t="n">
-        <v>237.7286580436576</v>
+        <v>462.7902645623569</v>
       </c>
       <c r="L45" t="n">
-        <v>628.9711971605159</v>
+        <v>652.8226261026791</v>
       </c>
       <c r="M45" t="n">
-        <v>1071.265954669399</v>
+        <v>882.4209603825697</v>
       </c>
       <c r="N45" t="n">
-        <v>1312.77657485739</v>
+        <v>1123.931580570561</v>
       </c>
       <c r="O45" t="n">
-        <v>1524.712592344458</v>
+        <v>1335.867598057628</v>
       </c>
       <c r="P45" t="n">
-        <v>1686.980039158656</v>
+        <v>1498.135044871826</v>
       </c>
       <c r="Q45" t="n">
         <v>1775.234255540018</v>
@@ -7754,25 +7754,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S45" t="n">
-        <v>1700.495187579393</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.804889936497</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.530002352791</v>
+        <v>1435.084340061817</v>
       </c>
       <c r="V45" t="n">
-        <v>1134.818475345825</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W45" t="n">
-        <v>921.5853070821537</v>
+        <v>1008.139644791179</v>
       </c>
       <c r="X45" t="n">
-        <v>745.2593252210465</v>
+        <v>981.2286622360594</v>
       </c>
       <c r="Y45" t="n">
-        <v>585.8573655848766</v>
+        <v>821.8267025998895</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>178.3691607540971</v>
+        <v>576.3397653136395</v>
       </c>
       <c r="C46" t="n">
-        <v>122.991576717685</v>
+        <v>576.3397653136395</v>
       </c>
       <c r="D46" t="n">
-        <v>122.991576717685</v>
+        <v>527.565819407477</v>
       </c>
       <c r="E46" t="n">
-        <v>122.991576717685</v>
+        <v>366.6550042757965</v>
       </c>
       <c r="F46" t="n">
-        <v>122.991576717685</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="G46" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H46" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I46" t="n">
         <v>35.74099050576837</v>
@@ -7812,16 +7812,16 @@
         <v>381.5865293505955</v>
       </c>
       <c r="L46" t="n">
-        <v>468.4834142328665</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M46" t="n">
-        <v>906.3899496339454</v>
+        <v>875.4027113546831</v>
       </c>
       <c r="N46" t="n">
-        <v>1332.336825071375</v>
+        <v>969.3152853445271</v>
       </c>
       <c r="O46" t="n">
-        <v>1582.654029123055</v>
+        <v>1321.756545649937</v>
       </c>
       <c r="P46" t="n">
         <v>1642.118498692661</v>
@@ -7830,28 +7830,28 @@
         <v>1787.049525288419</v>
       </c>
       <c r="R46" t="n">
-        <v>1787.049525288419</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="S46" t="n">
-        <v>1617.518699191836</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="T46" t="n">
-        <v>1382.103837451297</v>
+        <v>1509.86440701163</v>
       </c>
       <c r="U46" t="n">
-        <v>1382.103837451297</v>
+        <v>1227.119032459236</v>
       </c>
       <c r="V46" t="n">
-        <v>1108.218092390819</v>
+        <v>1227.119032459236</v>
       </c>
       <c r="W46" t="n">
-        <v>829.1484278996934</v>
+        <v>1227.119032459236</v>
       </c>
       <c r="X46" t="n">
-        <v>590.8045657593768</v>
+        <v>988.7751703189192</v>
       </c>
       <c r="Y46" t="n">
-        <v>366.0688671481415</v>
+        <v>764.0394717076839</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>171.9577745766626</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>329.2291760894424</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>276.6915141887437</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>311.0492165645759</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>263.5328115890082</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.970713529054045</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
         <v>246.129700984478</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>101.8942200099476</v>
+        <v>83.09947510496454</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>335.3881832803894</v>
+        <v>276.6915141887437</v>
       </c>
       <c r="O16" t="n">
-        <v>311.5743199423188</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>60.47076735152362</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>357.6167082096172</v>
+        <v>83.09947510496499</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>118.3669221269925</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>335.3881832803894</v>
+        <v>319.3229224358852</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>83.09947510496468</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>214.8448719484779</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>133.1790490459483</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
         <v>208.3638319047618</v>
@@ -9567,19 +9567,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>24.09212450449724</v>
+        <v>319.3229224358852</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>13.04638138057439</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>225.3064842911557</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9725,10 +9725,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>157.5111761007951</v>
+        <v>275.0411313910832</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>263.008519362699</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>29.53239100739039</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>335.3881832803894</v>
@@ -9813,7 +9813,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>178.052047047741</v>
+        <v>252.4811301762607</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>238.3528656717301</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9953,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>378.2967798414123</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>32.01386040698006</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>263.008519362699</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>292.8818554242381</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>100.5499664459339</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10050,7 +10050,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>178.052047047741</v>
+        <v>112.3941039857847</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>110.0744140796686</v>
       </c>
       <c r="K29" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0.9707135290540378</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>275.0411313910832</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>263.008519362699</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>48.32713591237399</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>340.2470856816786</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10287,10 +10287,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>178.0520470477408</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>112.394103985785</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>238.3528656717301</v>
+        <v>19.49127479464852</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>218.8615908770817</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0.9707135290540378</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>176.3059210057787</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>340.2470856816784</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>317.1506174091142</v>
+        <v>231.669852867847</v>
       </c>
       <c r="M34" t="n">
         <v>348.4508580952379</v>
@@ -10524,7 +10524,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>178.0520470477408</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>318.1005203988072</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>118.7817000673183</v>
+        <v>83.09947510496454</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>173.5359018112398</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>209.4294215944439</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0.9707135290540378</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>79.26551225650815</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>357.6167082096174</v>
+        <v>190.7525194816467</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>11.55455306739205</v>
       </c>
       <c r="L40" t="n">
-        <v>190.6667523454265</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>171.9577745766623</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>348.0239209944259</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11229,16 +11229,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>54.6833955097881</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>63.64240096979804</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.76545843403778</v>
+        <v>0.9707135290540378</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>203.2426036126627</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>214.8448719484778</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>190.7525194816464</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11460,19 +11460,19 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>173.5359018112386</v>
+        <v>276.6915141887436</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
         <v>127.5494547533709</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>204.4372428924464</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H11" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166568202456233</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.72816709987868</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>22.5088070638281</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23399,10 +23399,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>147.9208493129276</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>236.1568717301125</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>226.9172083226835</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>52.73295984914284</v>
       </c>
       <c r="C14" t="n">
-        <v>305.3363630940094</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H14" t="n">
         <v>285.9311321812619</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>88.91519032756277</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>59.04692160236738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>167.8355178356165</v>
+        <v>80.69818733809238</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U16" t="n">
         <v>279.9179208068699</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>183.6989535996033</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>185.2441504954078</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T17" t="n">
-        <v>210.6370840092685</v>
+        <v>109.9501023234139</v>
       </c>
       <c r="U17" t="n">
         <v>254.319061736559</v>
@@ -23819,16 +23819,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>20.9616445552183</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>104.7777180703237</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>43.14313124260286</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>214.9867263876827</v>
       </c>
       <c r="W19" t="n">
-        <v>82.65512249884577</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>254.8695317863449</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>165.2543892530003</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H20" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I20" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T20" t="n">
         <v>210.6370840092685</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>88.91519032756227</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>147.9208493129271</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>89.3754832703399</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>49.5029789766611</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>313.9071696911341</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U23" t="n">
-        <v>178.5516836599688</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>86.37808034979749</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>7.679308321590781</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>92.48951641080686</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>357.6578516304075</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T26" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.319061736559</v>
@@ -24505,13 +24505,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>237.1249256960683</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>51.65093263047279</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I28" t="n">
         <v>86.37808034979749</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.711617480656749</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S28" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>361.2711318137302</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.6370840092685</v>
@@ -24739,13 +24739,13 @@
         <v>254.319061736559</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>56.98371206796907</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>116.8574281340704</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.6200590018132</v>
@@ -24888,13 +24888,13 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S31" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>64.55300772476458</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,19 +24925,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>402.5056876845219</v>
+        <v>102.9164141718766</v>
       </c>
       <c r="H32" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I32" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>210.6370840092685</v>
       </c>
       <c r="U32" t="n">
-        <v>221.9551221303836</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>79.83350837833993</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>256.0235854580957</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>285.9311321812619</v>
       </c>
       <c r="I35" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>43.86671438671109</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>103.0696256550597</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>69.8262665891736</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>9.020847003696304</v>
       </c>
     </row>
     <row r="37">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>156.9266018871919</v>
+        <v>34.4207000756158</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>323.7385206820821</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T38" t="n">
         <v>210.6370840092685</v>
       </c>
       <c r="U38" t="n">
-        <v>254.319061736559</v>
+        <v>125.9520043363537</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>41.94886412095353</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>174.6039846594981</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>46.08469392261877</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>49.05693894303806</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -25642,13 +25642,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>234.6468564589125</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I41" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>49.09470901451763</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>100.954523106319</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>69.82626658917468</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>25.20542325127494</v>
       </c>
       <c r="G43" t="n">
         <v>164.6200590018132</v>
@@ -25806,7 +25806,7 @@
         <v>139.5954175304433</v>
       </c>
       <c r="I43" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S43" t="n">
-        <v>21.78292608466917</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>305.783075074875</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>285.9311321812619</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U44" t="n">
-        <v>254.319061736559</v>
+        <v>162.8494144060204</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25949,10 +25949,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>117.8814574420612</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>147.9208493129273</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>114.5586305178527</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>109.6134917832181</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>439249.8991898882</v>
+        <v>439249.8991898883</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>439249.8991898884</v>
+        <v>439249.8991898883</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>439249.8991898882</v>
+        <v>439249.8991898883</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>489782.8018339844</v>
+        <v>489782.8018339843</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>489782.8018339842</v>
+        <v>489782.8018339844</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>439249.8991898885</v>
+        <v>439249.8991898883</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>439249.8991898885</v>
+        <v>439249.8991898883</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>439249.8991898884</v>
+        <v>439249.8991898882</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>388805.8187268447</v>
       </c>
       <c r="E2" t="n">
+        <v>220902.5246664837</v>
+      </c>
+      <c r="F2" t="n">
         <v>220902.5246664838</v>
       </c>
-      <c r="F2" t="n">
-        <v>220902.5246664836</v>
-      </c>
       <c r="G2" t="n">
+        <v>220902.5246664838</v>
+      </c>
+      <c r="H2" t="n">
         <v>220902.5246664837</v>
       </c>
-      <c r="H2" t="n">
-        <v>220902.5246664838</v>
-      </c>
       <c r="I2" t="n">
-        <v>241366.7294497736</v>
+        <v>241366.7294497737</v>
       </c>
       <c r="J2" t="n">
         <v>241366.7294497737</v>
       </c>
       <c r="K2" t="n">
-        <v>241366.7294497738</v>
+        <v>241366.7294497737</v>
       </c>
       <c r="L2" t="n">
-        <v>241366.7294497737</v>
+        <v>241366.7294497736</v>
       </c>
       <c r="M2" t="n">
-        <v>220902.5246664838</v>
+        <v>220902.5246664837</v>
       </c>
       <c r="N2" t="n">
         <v>220902.5246664837</v>
       </c>
       <c r="O2" t="n">
+        <v>220902.5246664836</v>
+      </c>
+      <c r="P2" t="n">
         <v>220902.5246664837</v>
-      </c>
-      <c r="P2" t="n">
-        <v>220902.5246664836</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>560128.355963044</v>
+        <v>560128.3559630441</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16007.44950723706</v>
+        <v>16007.44950723702</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>96333.82383685869</v>
+        <v>96333.82383685868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>346022.0767299731</v>
       </c>
       <c r="E4" t="n">
-        <v>16240.80425500396</v>
+        <v>16240.80425500397</v>
       </c>
       <c r="F4" t="n">
-        <v>16240.80425500396</v>
+        <v>16240.80425500397</v>
       </c>
       <c r="G4" t="n">
-        <v>16240.80425500397</v>
+        <v>16240.80425500398</v>
       </c>
       <c r="H4" t="n">
-        <v>16240.80425500397</v>
+        <v>16240.80425500398</v>
       </c>
       <c r="I4" t="n">
         <v>27602.84700870967</v>
       </c>
       <c r="J4" t="n">
+        <v>27602.84700870967</v>
+      </c>
+      <c r="K4" t="n">
         <v>27602.84700870968</v>
       </c>
-      <c r="K4" t="n">
-        <v>27602.84700870966</v>
-      </c>
       <c r="L4" t="n">
-        <v>27602.84700870967</v>
+        <v>27602.84700870968</v>
       </c>
       <c r="M4" t="n">
-        <v>16240.80425500402</v>
+        <v>16240.80425500397</v>
       </c>
       <c r="N4" t="n">
-        <v>16240.80425500402</v>
+        <v>16240.80425500397</v>
       </c>
       <c r="O4" t="n">
-        <v>16240.80425500396</v>
+        <v>16240.80425500397</v>
       </c>
       <c r="P4" t="n">
-        <v>16240.80425500396</v>
+        <v>16240.80425500397</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38742.42450886573</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="F5" t="n">
-        <v>38742.42450886572</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="G5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="H5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="I5" t="n">
         <v>42402.35708297614</v>
@@ -26502,10 +26502,10 @@
         <v>42402.35708297614</v>
       </c>
       <c r="M5" t="n">
-        <v>38742.42450886576</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="N5" t="n">
-        <v>38742.42450886576</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="O5" t="n">
         <v>38742.42450886573</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9156.141996871738</v>
+        <v>9147.342311242333</v>
       </c>
       <c r="C6" t="n">
-        <v>9156.14199687168</v>
+        <v>9147.342311242217</v>
       </c>
       <c r="D6" t="n">
-        <v>9156.14199687168</v>
+        <v>9147.342311242217</v>
       </c>
       <c r="E6" t="n">
-        <v>-394209.0600604299</v>
+        <v>-394917.4568046443</v>
       </c>
       <c r="F6" t="n">
-        <v>165919.2959026139</v>
+        <v>165210.8991583998</v>
       </c>
       <c r="G6" t="n">
-        <v>165919.295902614</v>
+        <v>165210.8991583999</v>
       </c>
       <c r="H6" t="n">
-        <v>165919.2959026141</v>
+        <v>165210.8991583998</v>
       </c>
       <c r="I6" t="n">
-        <v>155354.0758508508</v>
+        <v>154730.946626567</v>
       </c>
       <c r="J6" t="n">
-        <v>171361.5253580879</v>
+        <v>170738.396133804</v>
       </c>
       <c r="K6" t="n">
-        <v>171361.525358088</v>
+        <v>170738.396133804</v>
       </c>
       <c r="L6" t="n">
-        <v>171361.5253580878</v>
+        <v>170738.3961338039</v>
       </c>
       <c r="M6" t="n">
-        <v>69585.47206575534</v>
+        <v>68877.07532154107</v>
       </c>
       <c r="N6" t="n">
-        <v>165919.295902614</v>
+        <v>165210.8991583998</v>
       </c>
       <c r="O6" t="n">
-        <v>165919.295902614</v>
+        <v>165210.8991583997</v>
       </c>
       <c r="P6" t="n">
-        <v>165919.295902614</v>
+        <v>165210.8991583997</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531.159253416595</v>
+        <v>531.1592534165951</v>
       </c>
       <c r="F3" t="n">
-        <v>531.159253416595</v>
+        <v>531.1592534165951</v>
       </c>
       <c r="G3" t="n">
         <v>531.1592534165951</v>
@@ -26798,34 +26798,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221046</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="G4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="H4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="I4" t="n">
+        <v>506.95864076471</v>
+      </c>
+      <c r="J4" t="n">
+        <v>506.95864076471</v>
+      </c>
+      <c r="K4" t="n">
         <v>506.9586407647101</v>
-      </c>
-      <c r="J4" t="n">
-        <v>506.9586407647101</v>
-      </c>
-      <c r="K4" t="n">
-        <v>506.95864076471</v>
       </c>
       <c r="L4" t="n">
         <v>506.95864076471</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221049</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7623813221049</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="O4" t="n">
         <v>446.7623813221047</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531.159253416595</v>
+        <v>531.1592534165951</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221046</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.19625944260537</v>
+        <v>60.1962594426052</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>386.5661218794991</v>
+        <v>386.566121879499</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221046</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,10 +31758,10 @@
         <v>21.86828021729729</v>
       </c>
       <c r="I11" t="n">
-        <v>82.32167685364134</v>
+        <v>82.32167685364135</v>
       </c>
       <c r="J11" t="n">
-        <v>181.2320710941376</v>
+        <v>181.2320710941377</v>
       </c>
       <c r="K11" t="n">
         <v>271.6198950021757</v>
@@ -31770,31 +31770,31 @@
         <v>336.9684980242787</v>
       </c>
       <c r="M11" t="n">
-        <v>374.9423809305997</v>
+        <v>374.9423809305998</v>
       </c>
       <c r="N11" t="n">
-        <v>381.0093406442476</v>
+        <v>381.0093406442477</v>
       </c>
       <c r="O11" t="n">
-        <v>359.7763162174686</v>
+        <v>359.7763162174687</v>
       </c>
       <c r="P11" t="n">
-        <v>307.0607621723543</v>
+        <v>307.0607621723544</v>
       </c>
       <c r="Q11" t="n">
-        <v>230.5898445322264</v>
+        <v>230.5898445322265</v>
       </c>
       <c r="R11" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S11" t="n">
-        <v>48.65845824012326</v>
+        <v>48.65845824012327</v>
       </c>
       <c r="T11" t="n">
-        <v>9.347335203341283</v>
+        <v>9.347335203341284</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1708250865259399</v>
+        <v>0.17082508652594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,7 +31834,7 @@
         <v>1.142493488480978</v>
       </c>
       <c r="H12" t="n">
-        <v>11.03408184927681</v>
+        <v>11.03408184927682</v>
       </c>
       <c r="I12" t="n">
         <v>39.33585037094596</v>
@@ -31843,37 +31843,37 @@
         <v>107.9405799796875</v>
       </c>
       <c r="K12" t="n">
-        <v>184.487643707913</v>
+        <v>184.4876437079131</v>
       </c>
       <c r="L12" t="n">
-        <v>248.0664041546088</v>
+        <v>248.0664041546089</v>
       </c>
       <c r="M12" t="n">
-        <v>289.4817931120442</v>
+        <v>289.4817931120443</v>
       </c>
       <c r="N12" t="n">
-        <v>297.143514795761</v>
+        <v>297.1435147957611</v>
       </c>
       <c r="O12" t="n">
-        <v>271.8282643404719</v>
+        <v>271.828264340472</v>
       </c>
       <c r="P12" t="n">
-        <v>218.1661469363369</v>
+        <v>218.166146936337</v>
       </c>
       <c r="Q12" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R12" t="n">
-        <v>70.93481501288039</v>
+        <v>70.93481501288041</v>
       </c>
       <c r="S12" t="n">
-        <v>21.22131545489885</v>
+        <v>21.22131545489886</v>
       </c>
       <c r="T12" t="n">
-        <v>4.605050508394817</v>
+        <v>4.605050508394818</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07516404529480121</v>
+        <v>0.07516404529480122</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9578281618987777</v>
+        <v>0.957828161898778</v>
       </c>
       <c r="H13" t="n">
-        <v>8.515963112154594</v>
+        <v>8.515963112154596</v>
       </c>
       <c r="I13" t="n">
         <v>28.80450508691962</v>
       </c>
       <c r="J13" t="n">
-        <v>67.71845104624359</v>
+        <v>67.7184510462436</v>
       </c>
       <c r="K13" t="n">
         <v>111.2822173551489</v>
@@ -31940,19 +31940,19 @@
         <v>115.8449624172849</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.20504726590585</v>
+        <v>80.20504726590586</v>
       </c>
       <c r="R13" t="n">
-        <v>43.06743717046685</v>
+        <v>43.06743717046686</v>
       </c>
       <c r="S13" t="n">
         <v>16.69233260327233</v>
       </c>
       <c r="T13" t="n">
-        <v>4.09253850993114</v>
+        <v>4.092538509931141</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05224517246720612</v>
+        <v>0.05224517246720613</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,10 +31995,10 @@
         <v>21.86828021729729</v>
       </c>
       <c r="I14" t="n">
-        <v>82.32167685364134</v>
+        <v>82.32167685364135</v>
       </c>
       <c r="J14" t="n">
-        <v>181.2320710941376</v>
+        <v>181.2320710941377</v>
       </c>
       <c r="K14" t="n">
         <v>271.6198950021757</v>
@@ -32007,31 +32007,31 @@
         <v>336.9684980242787</v>
       </c>
       <c r="M14" t="n">
-        <v>374.9423809305997</v>
+        <v>374.9423809305998</v>
       </c>
       <c r="N14" t="n">
-        <v>381.0093406442476</v>
+        <v>381.0093406442477</v>
       </c>
       <c r="O14" t="n">
-        <v>359.7763162174686</v>
+        <v>359.7763162174687</v>
       </c>
       <c r="P14" t="n">
-        <v>307.0607621723543</v>
+        <v>307.0607621723544</v>
       </c>
       <c r="Q14" t="n">
-        <v>230.5898445322264</v>
+        <v>230.5898445322265</v>
       </c>
       <c r="R14" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S14" t="n">
-        <v>48.65845824012326</v>
+        <v>48.65845824012327</v>
       </c>
       <c r="T14" t="n">
-        <v>9.347335203341283</v>
+        <v>9.347335203341284</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1708250865259399</v>
+        <v>0.17082508652594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,7 +32071,7 @@
         <v>1.142493488480978</v>
       </c>
       <c r="H15" t="n">
-        <v>11.03408184927681</v>
+        <v>11.03408184927682</v>
       </c>
       <c r="I15" t="n">
         <v>39.33585037094596</v>
@@ -32080,37 +32080,37 @@
         <v>107.9405799796875</v>
       </c>
       <c r="K15" t="n">
-        <v>184.487643707913</v>
+        <v>184.4876437079131</v>
       </c>
       <c r="L15" t="n">
-        <v>248.0664041546088</v>
+        <v>248.0664041546089</v>
       </c>
       <c r="M15" t="n">
-        <v>289.4817931120442</v>
+        <v>289.4817931120443</v>
       </c>
       <c r="N15" t="n">
-        <v>297.143514795761</v>
+        <v>297.1435147957611</v>
       </c>
       <c r="O15" t="n">
-        <v>271.8282643404719</v>
+        <v>271.828264340472</v>
       </c>
       <c r="P15" t="n">
-        <v>218.1661469363369</v>
+        <v>218.166146936337</v>
       </c>
       <c r="Q15" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R15" t="n">
-        <v>70.93481501288039</v>
+        <v>70.93481501288041</v>
       </c>
       <c r="S15" t="n">
-        <v>21.22131545489885</v>
+        <v>21.22131545489886</v>
       </c>
       <c r="T15" t="n">
-        <v>4.605050508394817</v>
+        <v>4.605050508394818</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07516404529480121</v>
+        <v>0.07516404529480122</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9578281618987777</v>
+        <v>0.957828161898778</v>
       </c>
       <c r="H16" t="n">
-        <v>8.515963112154594</v>
+        <v>8.515963112154596</v>
       </c>
       <c r="I16" t="n">
         <v>28.80450508691962</v>
       </c>
       <c r="J16" t="n">
-        <v>67.71845104624359</v>
+        <v>67.7184510462436</v>
       </c>
       <c r="K16" t="n">
         <v>111.2822173551489</v>
@@ -32177,19 +32177,19 @@
         <v>115.8449624172849</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.20504726590585</v>
+        <v>80.20504726590586</v>
       </c>
       <c r="R16" t="n">
-        <v>43.06743717046685</v>
+        <v>43.06743717046686</v>
       </c>
       <c r="S16" t="n">
         <v>16.69233260327233</v>
       </c>
       <c r="T16" t="n">
-        <v>4.09253850993114</v>
+        <v>4.092538509931141</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05224517246720612</v>
+        <v>0.05224517246720613</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K11" t="n">
-        <v>182.4835053289585</v>
+        <v>182.4835053289586</v>
       </c>
       <c r="L11" t="n">
         <v>241.4830999614339</v>
       </c>
       <c r="M11" t="n">
-        <v>281.6521564735543</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N11" t="n">
-        <v>288.0970498876283</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O11" t="n">
-        <v>266.5865405916855</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P11" t="n">
         <v>213.4113988914702</v>
@@ -35433,7 +35433,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R11" t="n">
-        <v>46.82024895384005</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>18.79474490498373</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J12" t="n">
-        <v>56.57134117968749</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K12" t="n">
-        <v>128.6618609232976</v>
+        <v>300.6196354999602</v>
       </c>
       <c r="L12" t="n">
-        <v>191.9518803437598</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M12" t="n">
         <v>231.9175093736268</v>
       </c>
       <c r="N12" t="n">
-        <v>243.950121402011</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O12" t="n">
         <v>214.076785340472</v>
@@ -35509,10 +35509,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q12" t="n">
-        <v>418.3748492019299</v>
+        <v>89.14567311248757</v>
       </c>
       <c r="R12" t="n">
-        <v>100.7929153791732</v>
+        <v>11.934615907475</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.28530536328817</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K13" t="n">
-        <v>267.3956797008438</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L13" t="n">
-        <v>87.77463119421316</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M13" t="n">
-        <v>442.3298337384635</v>
+        <v>370.5704898319693</v>
       </c>
       <c r="N13" t="n">
-        <v>94.86118584832725</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O13" t="n">
-        <v>390.3589754115996</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P13" t="n">
         <v>323.5979323663882</v>
@@ -35649,19 +35649,19 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K14" t="n">
-        <v>182.4835053289585</v>
+        <v>182.4835053289586</v>
       </c>
       <c r="L14" t="n">
         <v>241.4830999614339</v>
       </c>
       <c r="M14" t="n">
-        <v>281.6521564735543</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N14" t="n">
-        <v>288.0970498876283</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O14" t="n">
-        <v>266.5865405916855</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P14" t="n">
         <v>213.4113988914702</v>
@@ -35670,7 +35670,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R14" t="n">
-        <v>46.82024895384005</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J15" t="n">
         <v>302.7010421641655</v>
       </c>
       <c r="K15" t="n">
-        <v>128.6618609232976</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L15" t="n">
-        <v>191.9518803437598</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M15" t="n">
         <v>231.9175093736268</v>
       </c>
       <c r="N15" t="n">
-        <v>243.950121402011</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O15" t="n">
         <v>214.076785340472</v>
@@ -35746,7 +35746,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q15" t="n">
-        <v>191.0398931224352</v>
+        <v>172.2451482174521</v>
       </c>
       <c r="R15" t="n">
         <v>100.7929153791732</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.28530536328817</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K16" t="n">
-        <v>59.03184779608206</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L16" t="n">
-        <v>87.77463119421316</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M16" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N16" t="n">
-        <v>430.2493691287167</v>
+        <v>371.552700037071</v>
       </c>
       <c r="O16" t="n">
-        <v>390.8840787893425</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P16" t="n">
         <v>323.5979323663882</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.84552160598028</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J18" t="n">
-        <v>117.0421085312111</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K18" t="n">
         <v>128.6618609232977</v>
@@ -35983,10 +35983,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q18" t="n">
-        <v>446.7623813221047</v>
+        <v>172.2451482174526</v>
       </c>
       <c r="R18" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K19" t="n">
-        <v>177.3987699230746</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L19" t="n">
-        <v>87.77463119421319</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M19" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N19" t="n">
-        <v>430.2493691287167</v>
+        <v>414.1841082842125</v>
       </c>
       <c r="O19" t="n">
         <v>79.30975884702372</v>
       </c>
       <c r="P19" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q19" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>107.9084797608297</v>
+        <v>107.9084797608303</v>
       </c>
       <c r="K20" t="n">
         <v>182.4835053289586</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J21" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K21" t="n">
-        <v>128.6618609232977</v>
+        <v>211.7613360282623</v>
       </c>
       <c r="L21" t="n">
         <v>191.9518803437599</v>
       </c>
       <c r="M21" t="n">
-        <v>446.7623813221047</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N21" t="n">
         <v>243.9501214020111</v>
       </c>
       <c r="O21" t="n">
-        <v>347.2558343864202</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P21" t="n">
         <v>163.9065119335332</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K22" t="n">
         <v>267.3956797008439</v>
@@ -36287,19 +36287,19 @@
         <v>404.9252486033274</v>
       </c>
       <c r="M22" t="n">
-        <v>93.87897564322566</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N22" t="n">
-        <v>118.9533103528245</v>
+        <v>414.1841082842125</v>
       </c>
       <c r="O22" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P22" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q22" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>107.9084797608297</v>
+        <v>346.2613454325598</v>
       </c>
       <c r="K23" t="n">
         <v>182.4835053289586</v>
       </c>
       <c r="L23" t="n">
-        <v>254.5294813420083</v>
+        <v>241.4830999614339</v>
       </c>
       <c r="M23" t="n">
-        <v>506.9586407647101</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N23" t="n">
         <v>288.0970498876284</v>
@@ -36445,10 +36445,10 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M24" t="n">
-        <v>389.428685474422</v>
+        <v>506.95864076471</v>
       </c>
       <c r="N24" t="n">
-        <v>243.9501214020111</v>
+        <v>506.95864076471</v>
       </c>
       <c r="O24" t="n">
         <v>214.076785340472</v>
@@ -36457,7 +36457,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q24" t="n">
-        <v>499.2165387728651</v>
+        <v>118.678064119878</v>
       </c>
       <c r="R24" t="n">
         <v>100.7929153791732</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K25" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L25" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M25" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N25" t="n">
         <v>430.2493691287167</v>
@@ -36533,7 +36533,7 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P25" t="n">
-        <v>238.1171678251211</v>
+        <v>312.5462509536408</v>
       </c>
       <c r="Q25" t="n">
         <v>18.8455216059803</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>346.2613454325598</v>
+        <v>107.9084797608297</v>
       </c>
       <c r="K26" t="n">
-        <v>182.4835053289586</v>
+        <v>420.8363710006887</v>
       </c>
       <c r="L26" t="n">
         <v>241.4830999614339</v>
@@ -36673,25 +36673,25 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J27" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K27" t="n">
-        <v>128.6618609232977</v>
+        <v>506.95864076471</v>
       </c>
       <c r="L27" t="n">
-        <v>191.9518803437599</v>
+        <v>223.9657407507399</v>
       </c>
       <c r="M27" t="n">
         <v>231.9175093736268</v>
       </c>
       <c r="N27" t="n">
-        <v>506.9586407647101</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O27" t="n">
-        <v>506.9586407647101</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P27" t="n">
-        <v>264.4564783794671</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q27" t="n">
         <v>89.14567311248757</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K28" t="n">
         <v>59.03184779608208</v>
@@ -36770,7 +36770,7 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P28" t="n">
-        <v>238.1171678251211</v>
+        <v>172.4592247631648</v>
       </c>
       <c r="Q28" t="n">
         <v>18.8455216059803</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>107.9084797608297</v>
+        <v>217.9828938404983</v>
       </c>
       <c r="K29" t="n">
-        <v>420.8363710006887</v>
+        <v>182.4835053289586</v>
       </c>
       <c r="L29" t="n">
         <v>241.4830999614339</v>
@@ -36855,7 +36855,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R29" t="n">
-        <v>46.82024895384008</v>
+        <v>175.0987005459018</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K30" t="n">
         <v>128.6618609232977</v>
@@ -36919,19 +36919,19 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M30" t="n">
-        <v>506.95864076471</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N30" t="n">
-        <v>506.95864076471</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O30" t="n">
-        <v>262.403921252846</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P30" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.14567311248757</v>
+        <v>429.3927587941662</v>
       </c>
       <c r="R30" t="n">
         <v>100.7929153791732</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K31" t="n">
         <v>59.03184779608208</v>
@@ -37007,10 +37007,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P31" t="n">
-        <v>238.1171678251208</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.8455216059803</v>
+        <v>131.2396255917653</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>346.2613454325598</v>
+        <v>127.3997545554782</v>
       </c>
       <c r="K32" t="n">
         <v>182.4835053289586</v>
@@ -37080,7 +37080,7 @@
         <v>281.6521564735544</v>
       </c>
       <c r="N32" t="n">
-        <v>288.0970498876284</v>
+        <v>506.95864076471</v>
       </c>
       <c r="O32" t="n">
         <v>266.5865405916856</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K33" t="n">
         <v>128.6618609232977</v>
@@ -37165,10 +37165,10 @@
         <v>214.076785340472</v>
       </c>
       <c r="P33" t="n">
-        <v>340.212432939312</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q33" t="n">
-        <v>499.2165387728651</v>
+        <v>429.392758794166</v>
       </c>
       <c r="R33" t="n">
         <v>100.7929153791732</v>
@@ -37232,7 +37232,7 @@
         <v>59.03184779608208</v>
       </c>
       <c r="L34" t="n">
-        <v>404.9252486033274</v>
+        <v>319.4444840620602</v>
       </c>
       <c r="M34" t="n">
         <v>442.3298337384635</v>
@@ -37244,7 +37244,7 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P34" t="n">
-        <v>238.1171678251208</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q34" t="n">
         <v>18.8455216059803</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>107.9084797608297</v>
+        <v>107.9084797608298</v>
       </c>
       <c r="K35" t="n">
         <v>182.4835053289586</v>
@@ -37329,7 +37329,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R35" t="n">
-        <v>46.82024895384112</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J36" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K36" t="n">
-        <v>446.7623813221049</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L36" t="n">
         <v>191.9518803437599</v>
@@ -37405,10 +37405,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q36" t="n">
-        <v>207.9273731798059</v>
+        <v>172.2451482174521</v>
       </c>
       <c r="R36" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K37" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L37" t="n">
-        <v>261.310533005453</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M37" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N37" t="n">
-        <v>430.2493691287167</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O37" t="n">
-        <v>79.30975884702372</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P37" t="n">
-        <v>60.06512077738009</v>
+        <v>269.494542371824</v>
       </c>
       <c r="Q37" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>182.4835053289586</v>
       </c>
       <c r="L38" t="n">
-        <v>241.483099961435</v>
+        <v>241.4830999614339</v>
       </c>
       <c r="M38" t="n">
         <v>281.6521564735544</v>
@@ -37557,7 +37557,7 @@
         <v>288.0970498876284</v>
       </c>
       <c r="O38" t="n">
-        <v>266.5865405916856</v>
+        <v>266.5865405916858</v>
       </c>
       <c r="P38" t="n">
         <v>213.4113988914702</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K39" t="n">
         <v>128.6618609232977</v>
@@ -37639,10 +37639,10 @@
         <v>214.076785340472</v>
       </c>
       <c r="P39" t="n">
-        <v>243.1720241900414</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q39" t="n">
-        <v>446.7623813221049</v>
+        <v>279.8981925941342</v>
       </c>
       <c r="R39" t="n">
         <v>11.934615907475</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K40" t="n">
-        <v>267.3956797008439</v>
+        <v>70.58640086347413</v>
       </c>
       <c r="L40" t="n">
-        <v>278.4413835396397</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M40" t="n">
         <v>442.3298337384635</v>
@@ -37718,10 +37718,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P40" t="n">
-        <v>60.06512077738009</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q40" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>107.9084797608297</v>
+        <v>107.9084797608294</v>
       </c>
       <c r="K41" t="n">
         <v>182.4835053289586</v>
@@ -37800,7 +37800,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q41" t="n">
-        <v>140.5560401330742</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R41" t="n">
         <v>46.82024895384008</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J42" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K42" t="n">
-        <v>128.6618609232977</v>
+        <v>300.61963549996</v>
       </c>
       <c r="L42" t="n">
         <v>191.9518803437599</v>
@@ -37879,10 +37879,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q42" t="n">
-        <v>437.1695941069135</v>
+        <v>89.14567311248757</v>
       </c>
       <c r="R42" t="n">
-        <v>100.7929153791732</v>
+        <v>11.934615907475</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K43" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L43" t="n">
         <v>87.77463119421319</v>
@@ -37949,16 +37949,16 @@
         <v>442.3298337384635</v>
       </c>
       <c r="N43" t="n">
-        <v>149.5445813581154</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O43" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P43" t="n">
-        <v>323.5979323663882</v>
+        <v>123.7075217471781</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>18.79474490498374</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K45" t="n">
         <v>128.6618609232977</v>
       </c>
       <c r="L45" t="n">
-        <v>395.1944839564225</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M45" t="n">
-        <v>446.7623813221047</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N45" t="n">
         <v>243.9501214020111</v>
@@ -38116,7 +38116,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.14567311248757</v>
+        <v>279.898192594134</v>
       </c>
       <c r="R45" t="n">
         <v>11.934615907475</v>
@@ -38180,19 +38180,19 @@
         <v>267.3956797008439</v>
       </c>
       <c r="L46" t="n">
-        <v>87.77463119421319</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M46" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N46" t="n">
-        <v>430.2493691287167</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O46" t="n">
-        <v>252.8456606582623</v>
+        <v>356.0012730357673</v>
       </c>
       <c r="P46" t="n">
-        <v>60.06512077738009</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q46" t="n">
         <v>146.3949763593511</v>
